--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="131">
   <si>
     <t>Catalog</t>
   </si>
@@ -442,10 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Specs of Our Applications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Introduction of Edge Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,14 +471,6 @@
   </si>
   <si>
     <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. RabbitMQ queue size/length (Alex)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OTA needs Testing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -496,6 +484,52 @@
   <si>
     <t>1. Change all TCP NodePorts to Nginx Ports
 2. Mongo Exporter (Evelyn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specs of Our Applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namespaces/Apps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namespace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core (Alex)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. RabbitMQ queue size/length (Alex)
+size : 28/7=4G=4294967269
+length=4294967269/1000=4294967</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubespay with Moby (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTA Testing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -757,6 +791,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1148,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1161,16 +1198,17 @@
     <col min="3" max="3" width="24.875" style="12" customWidth="1"/>
     <col min="4" max="4" width="23.625" style="12" customWidth="1"/>
     <col min="5" max="5" width="72.375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="12" customWidth="1"/>
-    <col min="7" max="7" width="26.75" style="12" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="12" customWidth="1"/>
-    <col min="9" max="11" width="18.625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="16" style="12" customWidth="1"/>
-    <col min="13" max="13" width="67.375" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="12"/>
+    <col min="6" max="6" width="21.375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="12" customWidth="1"/>
+    <col min="8" max="8" width="26.75" style="12" customWidth="1"/>
+    <col min="9" max="9" width="27.5" style="12" customWidth="1"/>
+    <col min="10" max="12" width="18.625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="16" style="12" customWidth="1"/>
+    <col min="14" max="14" width="71.5" style="12" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1187,32 +1225,35 @@
         <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1225,23 +1266,24 @@
       <c r="E2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="17"/>
+      <c r="G2" s="20">
         <v>1</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="17"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
       <c r="B3" s="6" t="s">
         <v>55</v>
       </c>
@@ -1252,20 +1294,23 @@
       <c r="E3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="15" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23" t="s">
+      <c r="M3" s="17"/>
+      <c r="N3" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1275,22 +1320,23 @@
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="17"/>
+      <c r="G4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="15" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="6" t="s">
         <v>42</v>
       </c>
@@ -1300,22 +1346,25 @@
       <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="2">
         <v>0.25</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="15" t="s">
+      <c r="H5" s="17"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23" t="s">
+      <c r="M5" s="17"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1327,28 +1376,31 @@
       <c r="E6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="2">
         <v>6</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>1433.6</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="K6" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="17"/>
       <c r="L6" s="17"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
@@ -1358,27 +1410,30 @@
       <c r="E7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="2">
         <v>0.5</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>8</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="J7" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="K7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="17"/>
       <c r="L7" s="17"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1391,33 +1446,36 @@
       <c r="E8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="2">
         <v>6</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>32</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="J8" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>70</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="N8" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1430,29 +1488,32 @@
       <c r="E9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>10</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="J9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="K9" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="17"/>
       <c r="L9" s="17"/>
-      <c r="M9" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
       <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
@@ -1465,33 +1526,36 @@
       <c r="E10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="2">
         <v>1.5</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="H10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="J10" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="K10" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="M10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
@@ -1504,31 +1568,34 @@
       <c r="E11" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="2">
         <v>0.25</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="K11" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="M11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
@@ -1541,25 +1608,28 @@
       <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="17"/>
+      <c r="I12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="J12" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
-      <c r="M12" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
       <c r="B13" s="6" t="s">
         <v>50</v>
       </c>
@@ -1572,119 +1642,131 @@
       <c r="E13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="2">
         <v>0.5</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="15" t="s">
+      <c r="H13" s="17"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="17"/>
       <c r="L13" s="17"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="17"/>
+      <c r="N13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="20" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="2">
         <v>2</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="15" t="s">
+      <c r="H14" s="17"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>70</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="24"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="15" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="24"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="2">
         <v>0.5</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="15" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="2">
-        <f>SUM(F2:F16)</f>
-        <v>24.5</v>
-      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G17" s="2">
         <f>SUM(G2:G16)</f>
+        <v>24.5</v>
+      </c>
+      <c r="H17" s="2">
+        <f>SUM(H2:H16)</f>
         <v>1483.6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
@@ -1698,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1711,10 +1793,11 @@
     <col min="3" max="3" width="45.625" style="12" customWidth="1"/>
     <col min="4" max="4" width="70.375" style="12" customWidth="1"/>
     <col min="5" max="5" width="38.75" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="12"/>
+    <col min="6" max="6" width="26.625" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1730,9 +1813,12 @@
       <c r="E1" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="F1" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1743,20 +1829,22 @@
       <c r="E2" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
       <c r="B3" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+        <v>109</v>
+      </c>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>107</v>
       </c>
@@ -1765,12 +1853,15 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1780,10 +1871,11 @@
       <c r="E5" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="24"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="7" t="s">
         <v>105</v>
       </c>
@@ -1791,63 +1883,71 @@
       <c r="E6" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="23" t="s">
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="24"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="18" t="s">
         <v>102</v>
       </c>
@@ -1857,20 +1957,22 @@
       <c r="E14" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="24"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="23" t="s">
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="24" t="s">
         <v>92</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1879,42 +1981,46 @@
       <c r="E16" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="27"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="7" t="s">
         <v>96</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="27"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="7" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="27"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="7" t="s">
         <v>94</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
       <c r="B20" s="2" t="s">
         <v>84</v>
       </c>
@@ -1923,66 +2029,73 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="19" t="s">
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="20" t="s">
         <v>106</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="26"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="21"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
       <c r="B24" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
       <c r="B25" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
       <c r="B26" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>81</v>
       </c>
@@ -1990,9 +2103,11 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
+      <c r="F27" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="F7:F12"/>
     <mergeCell ref="D7:D12"/>
     <mergeCell ref="B5:B19"/>
     <mergeCell ref="E7:E12"/>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="136">
   <si>
     <t>Catalog</t>
   </si>
@@ -230,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Moby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18.06.0-dev</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,67 +262,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>es-minio-1.6.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify Domain Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anisible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port Forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodePort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMMPortal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMMWorker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grafana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(Alex)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(Evelyn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TODO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>es-minio-1.6.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify Domain Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anisible</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Port Forward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NodePort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RMMPortal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RMMWorker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grafana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(Alex)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(Evelyn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TODO(Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserManual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -530,6 +518,38 @@
   </si>
   <si>
     <t>OTA Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserManual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EdgeSense(Sephiroth)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prometheus-8.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grafana-1.22.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prom/prometheus:v2.5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grafana/grafana:5.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO (Alex)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Containerd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +600,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,6 +628,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -793,6 +819,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -822,6 +851,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,7 +1159,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1187,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1225,35 +1257,35 @@
         <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>50</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1267,7 +1299,7 @@
         <v>49</v>
       </c>
       <c r="F2" s="17"/>
-      <c r="G2" s="20">
+      <c r="G2" s="21">
         <v>1</v>
       </c>
       <c r="H2" s="17"/>
@@ -1275,7 +1307,7 @@
         <v>28</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
@@ -1283,34 +1315,34 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="22"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="17"/>
       <c r="I3" s="6"/>
       <c r="J3" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1327,7 +1359,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="6"/>
       <c r="J4" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
@@ -1335,19 +1367,19 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G5" s="2">
         <v>0.25</v>
@@ -1355,7 +1387,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="6"/>
       <c r="J5" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
@@ -1363,8 +1395,8 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1377,7 +1409,7 @@
         <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G6" s="2">
         <v>6</v>
@@ -1389,18 +1421,18 @@
         <v>12</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
@@ -1411,7 +1443,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G7" s="2">
         <v>0.5</v>
@@ -1423,17 +1455,17 @@
         <v>5</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1447,7 +1479,7 @@
         <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G8" s="2">
         <v>6</v>
@@ -1459,37 +1491,37 @@
         <v>31</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>128</v>
+        <v>68</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -1501,101 +1533,101 @@
         <v>32</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>77</v>
+      <c r="D10" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G10" s="2">
         <v>1.5</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G11" s="2">
         <v>0.25</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
@@ -1609,7 +1641,7 @@
         <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -1619,17 +1651,17 @@
         <v>36</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
         <v>50</v>
       </c>
@@ -1643,7 +1675,7 @@
         <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G13" s="2">
         <v>0.5</v>
@@ -1651,33 +1683,33 @@
       <c r="H13" s="17"/>
       <c r="I13" s="6"/>
       <c r="J13" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
       <c r="N13" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G14" s="2">
         <v>2</v>
@@ -1685,31 +1717,31 @@
       <c r="H14" s="17"/>
       <c r="I14" s="6"/>
       <c r="J14" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="21"/>
+        <v>72</v>
+      </c>
+      <c r="D15" s="22"/>
       <c r="E15" s="15" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -1717,7 +1749,7 @@
       <c r="H15" s="17"/>
       <c r="I15" s="6"/>
       <c r="J15" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
@@ -1725,17 +1757,17 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="15" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G16" s="2">
         <v>0.5</v>
@@ -1743,7 +1775,7 @@
       <c r="H16" s="17"/>
       <c r="I16" s="6"/>
       <c r="J16" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
@@ -1780,15 +1812,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="12" customWidth="1"/>
+    <col min="1" max="1" width="28" style="12" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="12" customWidth="1"/>
     <col min="3" max="3" width="45.625" style="12" customWidth="1"/>
     <col min="4" max="4" width="70.375" style="12" customWidth="1"/>
@@ -1802,283 +1834,283 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>80</v>
+      <c r="A2" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="19"/>
+        <v>106</v>
+      </c>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24" t="s">
-        <v>85</v>
+      <c r="A5" s="24"/>
+      <c r="B5" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="19"/>
+        <v>96</v>
+      </c>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="19"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="24" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="19"/>
+        <v>92</v>
+      </c>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="19"/>
+        <v>91</v>
+      </c>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="19"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="20" t="s">
-        <v>106</v>
+      <c r="A21" s="24"/>
+      <c r="B21" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="19"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="19"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2086,9 +2118,9 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2097,13 +2129,23 @@
     </row>
     <row r="27" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="19"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="466" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
   <si>
     <t>Catalog</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Database</t>
   </si>
   <si>
-    <t>MongoDB, CHART: mongodb-replicaset-3.5.6, APP: 3.6</t>
-  </si>
-  <si>
     <t>IoTHub</t>
   </si>
   <si>
@@ -52,10 +49,6 @@
   </si>
   <si>
     <t>Memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostgreSQL, CHART: stolon-0.4.3, APP: 9.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,18 +104,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Version/Spec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>quay.io/external_storage/rbd-provisioner:v1.1.0-k8s1.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kubernetes v-1.10.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Kubernetes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,26 +116,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RabbitMQ, CHART: rabbitmq-ha-1.10.0, APP: 3.7.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minio, CHART: minio-1.6.3, APP: RELEASE.2018-08-25T01-56-38Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prometheus v-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prometheus</t>
   </si>
   <si>
     <t>Monitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ingress, CHART: nginx-ingress 0.28.2, nginx-ingress-controller: 0.19.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -246,14 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>minio/minio:RELEASE.2018-08-25T01-56-38Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grafana v-5.2.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PV(G)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>es-minio-1.6.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,10 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Introduction of Edge Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DNS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -467,11 +420,6 @@
   </si>
   <si>
     <t>Modify Domain Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Change all TCP NodePorts to Nginx Ports
-2. Mongo Exporter (Evelyn)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -545,11 +493,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TODO (Alex)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Containerd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minio-2.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minio/minio:RELEASE.2018-12-06T01-27-43Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Change all TCP NodePorts to Nginx Ports
+2. Mongo Exporter (Evelyn)
+3. recycling mechanism (Evelyn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduction of Edge Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1178,10 +1144,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,21 +1155,21 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1217,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1233,14 +1199,13 @@
     <col min="6" max="6" width="21.375" style="12" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="12" customWidth="1"/>
     <col min="8" max="8" width="26.75" style="12" customWidth="1"/>
-    <col min="9" max="9" width="27.5" style="12" customWidth="1"/>
-    <col min="10" max="12" width="18.625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="16" style="12" customWidth="1"/>
-    <col min="14" max="14" width="71.5" style="12" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="12"/>
+    <col min="9" max="11" width="18.625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="16" style="12" customWidth="1"/>
+    <col min="13" max="13" width="71.5" style="12" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1248,168 +1213,159 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="21">
         <v>1</v>
       </c>
       <c r="H2" s="17"/>
-      <c r="I2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>68</v>
-      </c>
+      <c r="I2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="17"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="23"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="15" t="s">
-        <v>77</v>
-      </c>
+      <c r="I3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="2">
         <v>3</v>
       </c>
       <c r="H4" s="17"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="15" t="s">
-        <v>77</v>
-      </c>
+      <c r="I4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="25"/>
       <c r="C5" s="6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G5" s="2">
         <v>0.25</v>
       </c>
       <c r="H5" s="17"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="15" t="s">
-        <v>77</v>
-      </c>
+      <c r="I5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G6" s="2">
         <v>6</v>
@@ -1417,33 +1373,30 @@
       <c r="H6" s="2">
         <v>1433.6</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>68</v>
-      </c>
+      <c r="I6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="17"/>
       <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="25"/>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G7" s="2">
         <v>0.5</v>
@@ -1451,35 +1404,32 @@
       <c r="H7" s="2">
         <v>8</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>68</v>
-      </c>
+      <c r="I7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="17"/>
       <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G8" s="2">
         <v>6</v>
@@ -1487,305 +1437,290 @@
       <c r="H8" s="2">
         <v>32</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>77</v>
+      <c r="I8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H9" s="2">
         <v>10</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>32</v>
+      <c r="I9" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G10" s="2">
         <v>1.5</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>33</v>
+        <v>64</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G11" s="2">
         <v>0.25</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="6" t="s">
-        <v>61</v>
+      <c r="I11" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
       <c r="H12" s="17"/>
-      <c r="I12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>77</v>
-      </c>
+      <c r="I12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G13" s="2">
         <v>0.5</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="I13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="17"/>
       <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G14" s="2">
         <v>2</v>
       </c>
       <c r="H14" s="17"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="15" t="s">
-        <v>77</v>
+      <c r="I14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="26"/>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="15" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="17"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="15" t="s">
-        <v>77</v>
-      </c>
+      <c r="I15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="26"/>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="15" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G16" s="2">
         <v>0.5</v>
       </c>
       <c r="H16" s="17"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="15" t="s">
-        <v>77</v>
-      </c>
+      <c r="I16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="2"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G17" s="2">
         <f>SUM(G2:G16)</f>
-        <v>24.5</v>
+        <v>23.75</v>
       </c>
       <c r="H17" s="2">
         <f>SUM(H2:H16)</f>
@@ -1814,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1834,74 +1769,74 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="25" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F5" s="20"/>
     </row>
@@ -1909,11 +1844,11 @@
       <c r="A6" s="24"/>
       <c r="B6" s="26"/>
       <c r="C6" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F6" s="20"/>
     </row>
@@ -1921,7 +1856,7 @@
       <c r="A7" s="24"/>
       <c r="B7" s="26"/>
       <c r="C7" s="25" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -1971,7 +1906,7 @@
       <c r="A13" s="24"/>
       <c r="B13" s="26"/>
       <c r="C13" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1981,13 +1916,13 @@
       <c r="A14" s="24"/>
       <c r="B14" s="26"/>
       <c r="C14" s="18" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F14" s="20"/>
     </row>
@@ -1995,7 +1930,7 @@
       <c r="A15" s="24"/>
       <c r="B15" s="26"/>
       <c r="C15" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -2005,13 +1940,13 @@
       <c r="A16" s="24"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F16" s="20"/>
     </row>
@@ -2020,10 +1955,10 @@
       <c r="B17" s="26"/>
       <c r="C17" s="29"/>
       <c r="D17" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F17" s="20"/>
     </row>
@@ -2032,10 +1967,10 @@
       <c r="B18" s="26"/>
       <c r="C18" s="29"/>
       <c r="D18" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F18" s="20"/>
     </row>
@@ -2044,20 +1979,20 @@
       <c r="B19" s="26"/>
       <c r="C19" s="29"/>
       <c r="D19" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -2066,10 +2001,10 @@
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="21" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -2079,7 +2014,7 @@
       <c r="A22" s="24"/>
       <c r="B22" s="28"/>
       <c r="C22" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -2089,7 +2024,7 @@
       <c r="A23" s="24"/>
       <c r="B23" s="23"/>
       <c r="C23" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2098,10 +2033,10 @@
     <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="13" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2110,7 +2045,7 @@
     <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="13" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2120,7 +2055,7 @@
     <row r="26" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="13" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2129,7 +2064,7 @@
     </row>
     <row r="27" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2139,7 +2074,7 @@
     </row>
     <row r="28" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="465" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="127">
   <si>
     <t>Catalog</t>
   </si>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>13.2.2  mimic (stable)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>quay.io/external_storage/rbd-provisioner:v1.1.0-k8s1.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18.06.0-dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>es-rmm-1.0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Modify Domain Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Anisible</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,255 +255,272 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TODO(Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introductiuon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Started</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subSection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the DNS Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessing the Endpoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EdgeSense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grafana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prometheus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RabbitMQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the Nginx Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the Endpoints (Ingress)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the Configuration of Authorization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebooting System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting Environment to request with the DNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>References of Other Documents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.kube/config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TroubleShooting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specifications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edge Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authorization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endpoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>References</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kube CLI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contact Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dashboards - K8s/RabbitMQ/PG/Mongo/Others (Evelyn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specs of Our Applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namespaces/Apps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namespace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubespay with Moby (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTA Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserManual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EdgeSense(Sephiroth)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prometheus-8.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grafana-1.22.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prom/prometheus:v2.5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grafana/grafana:5.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minio-2.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minio/minio:RELEASE.2018-12-06T01-27-43Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TODO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TODO(Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monitoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Introductiuon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get Started</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Section</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Preface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subSection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewing the DNS Resources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accessing the Endpoints</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EdgeSense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grafana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prometheus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RabbitMQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewing the Nginx Resources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewing the Endpoints (Ingress)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ifconfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewing the Configuration of Authorization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rebooting System</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting Environment to request with the DNS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>References of Other Documents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.kube/config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic Function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TroubleShooting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Specifications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edge Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DNS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authorization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Endpoints</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>References</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kube CLI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contact Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dashboards - K8s/RabbitMQ/PG/Mongo/Others (Evelyn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modify Domain Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Specs of Our Applications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Namespaces/Apps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Namespace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>network</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>core (Alex)</t>
+    <t>Introduction of Edge Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. RBAC Control - Viewer
+2. K8s 1.11.3
+3. Testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.2.4  mimic (stable)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. reboot test (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansible - Modify Domain Name (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansible - Modify PV Size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. RabbitMQ queue size/length (Alex)
 size : 28/7=4G=4294967269
-length=4294967269/1000=4294967</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kubespay with Moby (Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OTA Testing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserManual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EdgeSense(Sephiroth)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prometheus-8.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grafana-1.22.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prom/prometheus:v2.5.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grafana/grafana:5.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Containerd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minio-2.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minio/minio:RELEASE.2018-12-06T01-27-43Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO</t>
+length=4294967269/1000=4294967
+2. Ansible - Modify PV Size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Change all TCP NodePorts to Nginx Ports
 2. Mongo Exporter (Evelyn)
-3. recycling mechanism (Evelyn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Introduction of Edge Server</t>
+3. recycling mechanism (Evelyn)
+4. 30days / 5secs -&gt; 158G
+5. Ansible - Modify PV Size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1185,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1222,31 +1227,31 @@
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>20</v>
       </c>
@@ -1254,11 +1259,11 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="21">
@@ -1266,36 +1271,38 @@
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
-      <c r="M2" s="2"/>
+      <c r="M2" s="20" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="23"/>
       <c r="H3" s="17"/>
       <c r="I3" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1308,7 +1315,7 @@
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="2">
@@ -1316,87 +1323,87 @@
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="25"/>
       <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>63</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D5" s="17"/>
       <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>111</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F5" s="17"/>
       <c r="G5" s="2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G6" s="2">
         <v>6</v>
       </c>
       <c r="H6" s="2">
-        <v>1433.6</v>
+        <v>1024</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="25"/>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G7" s="2">
         <v>0.5</v>
@@ -1405,31 +1412,33 @@
         <v>8</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G8" s="2">
         <v>6</v>
@@ -1438,97 +1447,97 @@
         <v>32</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="2">
+        <v>104</v>
+      </c>
+      <c r="G9" s="15">
         <v>0.25</v>
       </c>
       <c r="H9" s="2">
         <v>10</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>64</v>
+        <v>103</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="H10" s="2">
+        <v>256</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1537,35 +1546,35 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="2">
+        <v>103</v>
+      </c>
+      <c r="G11" s="15">
         <v>0.25</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1574,62 +1583,62 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G13" s="2">
         <v>0.5</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="2" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1638,32 +1647,32 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G14" s="2">
         <v>2</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M14" s="2"/>
     </row>
@@ -1671,21 +1680,21 @@
       <c r="A15" s="24"/>
       <c r="B15" s="26"/>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="15" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
@@ -1696,21 +1705,21 @@
       <c r="A16" s="24"/>
       <c r="B16" s="26"/>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="15" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G16" s="2">
         <v>0.5</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
@@ -1720,11 +1729,11 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G17" s="2">
         <f>SUM(G2:G16)</f>
-        <v>23.75</v>
+        <v>23.126000000000001</v>
       </c>
       <c r="H17" s="2">
         <f>SUM(H2:H16)</f>
-        <v>1483.6</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1749,7 +1758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1769,74 +1778,74 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F5" s="20"/>
     </row>
@@ -1844,11 +1853,11 @@
       <c r="A6" s="24"/>
       <c r="B6" s="26"/>
       <c r="C6" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F6" s="20"/>
     </row>
@@ -1856,7 +1865,7 @@
       <c r="A7" s="24"/>
       <c r="B7" s="26"/>
       <c r="C7" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -1906,7 +1915,7 @@
       <c r="A13" s="24"/>
       <c r="B13" s="26"/>
       <c r="C13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1916,13 +1925,13 @@
       <c r="A14" s="24"/>
       <c r="B14" s="26"/>
       <c r="C14" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F14" s="20"/>
     </row>
@@ -1930,7 +1939,7 @@
       <c r="A15" s="24"/>
       <c r="B15" s="26"/>
       <c r="C15" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1940,13 +1949,13 @@
       <c r="A16" s="24"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F16" s="20"/>
     </row>
@@ -1955,10 +1964,10 @@
       <c r="B17" s="26"/>
       <c r="C17" s="29"/>
       <c r="D17" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F17" s="20"/>
     </row>
@@ -1967,10 +1976,10 @@
       <c r="B18" s="26"/>
       <c r="C18" s="29"/>
       <c r="D18" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F18" s="20"/>
     </row>
@@ -1979,20 +1988,20 @@
       <c r="B19" s="26"/>
       <c r="C19" s="29"/>
       <c r="D19" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -2001,10 +2010,10 @@
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -2014,7 +2023,7 @@
       <c r="A22" s="24"/>
       <c r="B22" s="28"/>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -2024,7 +2033,7 @@
       <c r="A23" s="24"/>
       <c r="B23" s="23"/>
       <c r="C23" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2033,10 +2042,10 @@
     <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2045,7 +2054,7 @@
     <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2055,7 +2064,7 @@
     <row r="26" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2064,7 +2073,7 @@
     </row>
     <row r="27" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2074,7 +2083,7 @@
     </row>
     <row r="28" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -796,6 +796,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -822,9 +825,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1252,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1266,7 +1266,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="17"/>
-      <c r="G2" s="21">
+      <c r="G2" s="22">
         <v>1</v>
       </c>
       <c r="H2" s="17"/>
@@ -1281,7 +1281,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>120</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="23"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="17"/>
       <c r="I3" s="15" t="s">
         <v>62</v>
@@ -1306,8 +1306,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1333,8 +1333,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1356,8 +1356,8 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1391,8 +1391,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
@@ -1424,7 +1424,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1463,7 +1463,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1502,17 +1502,17 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="21" t="s">
         <v>112</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1541,24 +1541,24 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="21" t="s">
         <v>113</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="15">
-        <v>0.25</v>
+      <c r="G11" s="2">
+        <v>0.04</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="15" t="s">
@@ -1578,7 +1578,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1609,7 +1609,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
@@ -1642,14 +1642,14 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="22" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -1677,12 +1677,12 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="15" t="s">
         <v>116</v>
       </c>
@@ -1702,12 +1702,12 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="15" t="s">
         <v>116</v>
       </c>
@@ -1729,7 +1729,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G17" s="2">
         <f>SUM(G2:G16)</f>
-        <v>23.126000000000001</v>
+        <v>22.916</v>
       </c>
       <c r="H17" s="2">
         <f>SUM(H2:H16)</f>
@@ -1794,7 +1794,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>108</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1808,7 +1808,7 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
@@ -1820,7 +1820,7 @@
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>89</v>
       </c>
@@ -1836,8 +1836,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1850,8 +1850,8 @@
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="7" t="s">
         <v>87</v>
       </c>
@@ -1862,58 +1862,58 @@
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="7" t="s">
         <v>73</v>
       </c>
@@ -1922,8 +1922,8 @@
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="18" t="s">
         <v>84</v>
       </c>
@@ -1936,8 +1936,8 @@
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="7" t="s">
         <v>80</v>
       </c>
@@ -1946,9 +1946,9 @@
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="25" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="26" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1960,9 +1960,9 @@
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="7" t="s">
         <v>78</v>
       </c>
@@ -1972,9 +1972,9 @@
       <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="7" t="s">
         <v>77</v>
       </c>
@@ -1984,9 +1984,9 @@
       <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="7" t="s">
         <v>76</v>
       </c>
@@ -1996,7 +1996,7 @@
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="2" t="s">
         <v>66</v>
       </c>
@@ -2008,8 +2008,8 @@
       <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="22" t="s">
         <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2020,8 +2020,8 @@
       <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="2" t="s">
         <v>91</v>
       </c>
@@ -2030,8 +2030,8 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="2" t="s">
         <v>93</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="13" t="s">
         <v>94</v>
       </c>
@@ -2052,7 +2052,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="13" t="s">
         <v>97</v>
       </c>
@@ -2062,7 +2062,7 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="13" t="s">
         <v>96</v>
       </c>
@@ -2093,14 +2093,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C16:C19"/>
     <mergeCell ref="F7:F12"/>
     <mergeCell ref="D7:D12"/>
     <mergeCell ref="B5:B19"/>
     <mergeCell ref="E7:E12"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C16:C19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="132">
   <si>
     <t>Catalog</t>
   </si>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>quay.io/external_storage/rbd-provisioner:v1.1.0-k8s1.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Kubernetes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,10 +116,6 @@
   </si>
   <si>
     <t>Nginx-Ingress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quay.io/kubernetes-ingress-controller/nginx-ingress-controller:0.19.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ecgwc/es-postgres:9.6.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>postgres-1.0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gcr.io/google-containers/hyperkube:v1.10.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DNS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>coredns/coredns:1.2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Container Runtime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TODO(Alex)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TODO(Evelyn)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,10 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Edge Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DNS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,10 +371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dashboards - K8s/RabbitMQ/PG/Mongo/Others (Evelyn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Specs of Our Applications</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,14 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kubespay with Moby (Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OTA Testing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UserManual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,36 +419,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>grafana/grafana:5.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>minio-2.3.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>minio/minio:RELEASE.2018-12-06T01-27-43Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TODO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Introduction of Edge Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Moby</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. RBAC Control - Viewer
-2. K8s 1.11.3
-3. Testing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,18 +443,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ansible - Modify Domain Name (Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ansible - Modify PV Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. RabbitMQ queue size/length (Alex)
-size : 28/7=4G=4294967269
-length=4294967269/1000=4294967
-2. Ansible - Modify PV Size</t>
+    <t>Introduction of Data Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Dashboards - K8s/RabbitMQ/PG/Mongo/Others (Evelyn)
+2. with rmm-datasource (Evelyn)
+3. Ansible - Modify MEM/PV/NS (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>1. Update to 1.0.95 (Alex) - Activation Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Version with tag (Alex)
+3. Ansible - Modify MEM/PV/NS (Jim)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -520,7 +487,200 @@
 2. Mongo Exporter (Evelyn)
 3. recycling mechanism (Evelyn)
 4. 30days / 5secs -&gt; 158G
-5. Ansible - Modify PV Size</t>
+5. Ansible - Modify MEM/PV/NS (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlertManager (Evelyn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Ansible - Modify Domain Name (Jim)
+2. Ansible - Modify MEM/PV/NS (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">1. OTA Testing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Ansible - Modify MEM/PV/NS (Jim)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecgwc/helm-rmm-grafana:1.14.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Ansible - Modify MEM/PV/NS (Jim)
+2. Version with tag (Alex)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">3. remove mongo-express (Alex)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>4. Deploy Failure (Alex)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. Ansible - Modify MEM/PV/NS (Jim)
+2. Version with tag (Alex)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>3. Deploy Failure (Alex)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecgwc/es-postgres:9.6.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecgwc/coredns:1.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecgwc/nginx-ingress-controller:0.19.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self-Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Private Registry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecgwc/minio:RELEASE.2018-12-06T01-27-43Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO (MingWei)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcr.io/google-containers/hyperkube:v1.11.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. RBAC Control - Viewer
+2. K8s 1.11.3
+3. Testing PV Scaling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>1. RabbitMQ queue size/length (Alex)
+size : 28/7=4G=4294967269
+length=4294967269/1000=4294967</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Ansible - Modify MEM/PV/NS (Jim)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>3. Deploy Failure (Alex)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubespay with Moby (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +688,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -565,6 +725,36 @@
       <charset val="136"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
@@ -734,7 +924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -796,9 +986,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -818,13 +1014,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1188,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1201,16 +1400,17 @@
     <col min="3" max="3" width="24.875" style="12" customWidth="1"/>
     <col min="4" max="4" width="23.625" style="12" customWidth="1"/>
     <col min="5" max="5" width="72.375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="12" customWidth="1"/>
-    <col min="8" max="8" width="26.75" style="12" customWidth="1"/>
-    <col min="9" max="11" width="18.625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="16" style="12" customWidth="1"/>
-    <col min="13" max="13" width="71.5" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="12"/>
+    <col min="6" max="7" width="37.25" style="12" customWidth="1"/>
+    <col min="8" max="8" width="21.375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="26.75" style="12" customWidth="1"/>
+    <col min="11" max="13" width="18.625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="16" style="12" customWidth="1"/>
+    <col min="15" max="16" width="71.5" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1227,87 +1427,104 @@
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="F2" s="17"/>
-      <c r="G2" s="22">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="24">
         <v>1</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="K2" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="L2" s="17"/>
-      <c r="M2" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="24"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="I3" s="26"/>
       <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="K3" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="L3" s="17"/>
-      <c r="M3" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26" t="s">
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1315,434 +1532,525 @@
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="2">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="2">
         <v>3</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="15" t="s">
-        <v>62</v>
-      </c>
       <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="K4" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="L4" s="17"/>
-      <c r="M4" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1024</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" s="23"/>
+    </row>
+    <row r="7" spans="1:16" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="2">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1024</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="2">
+        <v>120</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="2">
         <v>0.5</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>8</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="K7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="P7" s="23"/>
+    </row>
+    <row r="8" spans="1:16" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="2">
+        <v>39</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>32</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>54</v>
+      <c r="K8" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+        <v>49</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" s="23"/>
+    </row>
+    <row r="10" spans="1:16" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.538</v>
+      </c>
+      <c r="J10" s="2">
+        <v>256</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="H9" s="2">
-        <v>10</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="15">
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="H10" s="2">
-        <v>256</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+    </row>
+    <row r="11" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="P11" s="23"/>
+    </row>
+    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="P13" s="23"/>
+    </row>
+    <row r="14" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" s="23"/>
+    </row>
+    <row r="15" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" s="23"/>
+    </row>
+    <row r="16" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="D16" s="26"/>
+      <c r="E16" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="2">
         <v>0.5</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="J16" s="17"/>
+      <c r="K16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
       <c r="L16" s="17"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="2">
-        <f>SUM(G2:G16)</f>
-        <v>22.916</v>
-      </c>
-      <c r="H17" s="2">
-        <f>SUM(H2:H16)</f>
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="23"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
+        <f>SUM(I2:I16)</f>
+        <v>23.416</v>
+      </c>
+      <c r="J17" s="2">
+        <f>SUM(J2:J16)</f>
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
@@ -1758,15 +2066,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="12" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="45.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="44.75" style="12" customWidth="1"/>
     <col min="4" max="4" width="70.375" style="12" customWidth="1"/>
     <col min="5" max="5" width="38.75" style="12" customWidth="1"/>
     <col min="6" max="6" width="26.625" style="12" customWidth="1"/>
@@ -1778,283 +2086,283 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26" t="s">
-        <v>67</v>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="26" t="s">
-        <v>74</v>
+      <c r="A16" s="27"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="28" t="s">
+        <v>68</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="30"/>
       <c r="D17" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="30"/>
       <c r="D18" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="30"/>
       <c r="D19" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="22" t="s">
-        <v>88</v>
+      <c r="A21" s="27"/>
+      <c r="B21" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2062,9 +2370,9 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="13" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2073,7 +2381,7 @@
     </row>
     <row r="27" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2083,7 +2391,7 @@
     </row>
     <row r="28" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="132">
   <si>
     <t>Catalog</t>
   </si>
@@ -151,19 +151,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ecgwc/es-mongo:3.6.9-stretch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DNS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Core-DNS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ecgwc/es-rabbitmq:3.7.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -454,6 +446,77 @@
     <t>1. Dashboards - K8s/RabbitMQ/PG/Mongo/Others (Evelyn)
 2. with rmm-datasource (Evelyn)
 3. Ansible - Modify MEM/PV/NS (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Change all TCP NodePorts to Nginx Ports
+2. Mongo Exporter (Evelyn)
+3. recycling mechanism (Evelyn)
+4. 30days / 5secs -&gt; 158G
+5. Ansible - Modify MEM/PV/NS (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlertManager (Evelyn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Ansible - Modify Domain Name (Jim)
+2. Ansible - Modify MEM/PV/NS (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self-Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Private Registry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcr.io/google-containers/hyperkube:v1.11.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. RBAC Control - Viewer
+2. K8s 1.11.3
+3. Testing PV Scaling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubespay with Moby (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/es-mongo:3.6.9-stretch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/es-postgres:9.6.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/es-rabbitmq:3.7.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/minio:RELEASE.2018-12-06T01-27-43Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/helm-rmm-grafana:1.14.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.ioc/nginx-ingress-controller:0.19.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/coredns:1.2.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -466,7 +529,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>1. Update to 1.0.95 (Alex) - Activation Name</t>
+      <t>1. Update to 1.0.95 - Activation Name</t>
     </r>
     <r>
       <rPr>
@@ -483,20 +546,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Change all TCP NodePorts to Nginx Ports
-2. Mongo Exporter (Evelyn)
-3. recycling mechanism (Evelyn)
-4. 30days / 5secs -&gt; 158G
-5. Ansible - Modify MEM/PV/NS (Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AlertManager (Evelyn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Ansible - Modify Domain Name (Jim)
-2. Ansible - Modify MEM/PV/NS (Jim)</t>
+    <t>1. Ansible - Modify MEM/PV/NS (Jim)
+2. Version with tag (Alex)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Ansible - Modify MEM/PV/NS (Jim)
+2. Version with tag (Alex)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>3. remove mongo-express (Alex)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -528,106 +599,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ecgwc/helm-rmm-grafana:1.14.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Ansible - Modify MEM/PV/NS (Jim)
-2. Version with tag (Alex)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">3. remove mongo-express (Alex)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>4. Deploy Failure (Alex)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1. Ansible - Modify MEM/PV/NS (Jim)
-2. Version with tag (Alex)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>3. Deploy Failure (Alex)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ecgwc/es-postgres:9.6.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ecgwc/coredns:1.2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ecgwc/nginx-ingress-controller:0.19.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Self-Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Private Registry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ecgwc/minio:RELEASE.2018-12-06T01-27-43Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO (MingWei)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gcr.io/google-containers/hyperkube:v1.11.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. RBAC Control - Viewer
-2. K8s 1.11.3
-3. Testing PV Scaling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <strike/>
@@ -652,35 +623,11 @@
       <t xml:space="preserve">
 2. Ansible - Modify MEM/PV/NS (Jim)</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>3. Deploy Failure (Alex)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kubespay with Moby (Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.95 image to private registry/Test new java opts
+Deploy Failure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +635,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -731,13 +678,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -755,7 +695,9 @@
     </font>
     <font>
       <b/>
+      <strike/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1022,7 +964,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1389,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1427,37 +1369,37 @@
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="P1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1472,7 +1414,7 @@
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
@@ -1482,29 +1424,29 @@
       </c>
       <c r="J2" s="17"/>
       <c r="K2" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
       <c r="O2" s="20" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
@@ -1512,13 +1454,13 @@
       <c r="I3" s="26"/>
       <c r="J3" s="17"/>
       <c r="K3" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="33" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="P3" s="2"/>
     </row>
@@ -1532,7 +1474,7 @@
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -1542,13 +1484,13 @@
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="O4" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P4" s="2"/>
     </row>
@@ -1568,7 +1510,7 @@
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
@@ -1588,16 +1530,16 @@
         <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I6" s="2">
         <v>6</v>
@@ -1606,15 +1548,15 @@
         <v>1024</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
       <c r="O6" s="21" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P6" s="23"/>
     </row>
@@ -1631,13 +1573,13 @@
         <v>120</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>126</v>
+        <v>47</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I7" s="2">
         <v>0.5</v>
@@ -1646,15 +1588,15 @@
         <v>8</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
       <c r="O7" s="21" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P7" s="23"/>
     </row>
@@ -1670,16 +1612,16 @@
         <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>126</v>
+        <v>47</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I8" s="2">
         <v>6</v>
@@ -1688,19 +1630,19 @@
         <v>32</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P8" s="23"/>
     </row>
@@ -1710,22 +1652,22 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I9" s="22">
         <v>0.25</v>
@@ -1734,19 +1676,19 @@
         <v>10</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="P9" s="23"/>
     </row>
@@ -1759,19 +1701,19 @@
         <v>25</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>102</v>
-      </c>
       <c r="F10" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I10" s="2">
         <v>1.538</v>
@@ -1780,22 +1722,22 @@
         <v>256</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1804,22 +1746,22 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I11" s="2">
         <v>0.128</v>
@@ -1828,19 +1770,19 @@
         <v>10</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P11" s="23"/>
     </row>
@@ -1856,69 +1798,69 @@
         <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P12" s="23"/>
     </row>
     <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I13" s="2">
         <v>0.5</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
       <c r="O13" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P13" s="23"/>
     </row>
@@ -1928,77 +1870,81 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I14" s="2">
         <v>2</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="P14" s="23"/>
+        <v>126</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="29"/>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="P15" s="23"/>
+        <v>126</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
@@ -2008,31 +1954,33 @@
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I16" s="2">
         <v>0.5</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
       <c r="O16" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="P16" s="23"/>
+        <v>126</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I17" s="2">
@@ -2086,74 +2034,74 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F5" s="20"/>
     </row>
@@ -2161,11 +2109,11 @@
       <c r="A6" s="27"/>
       <c r="B6" s="29"/>
       <c r="C6" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="20"/>
     </row>
@@ -2173,7 +2121,7 @@
       <c r="A7" s="27"/>
       <c r="B7" s="29"/>
       <c r="C7" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -2223,7 +2171,7 @@
       <c r="A13" s="27"/>
       <c r="B13" s="29"/>
       <c r="C13" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -2233,13 +2181,13 @@
       <c r="A14" s="27"/>
       <c r="B14" s="29"/>
       <c r="C14" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F14" s="20"/>
     </row>
@@ -2247,7 +2195,7 @@
       <c r="A15" s="27"/>
       <c r="B15" s="29"/>
       <c r="C15" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -2257,13 +2205,13 @@
       <c r="A16" s="27"/>
       <c r="B16" s="29"/>
       <c r="C16" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F16" s="20"/>
     </row>
@@ -2272,10 +2220,10 @@
       <c r="B17" s="29"/>
       <c r="C17" s="30"/>
       <c r="D17" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F17" s="20"/>
     </row>
@@ -2284,10 +2232,10 @@
       <c r="B18" s="29"/>
       <c r="C18" s="30"/>
       <c r="D18" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F18" s="20"/>
     </row>
@@ -2296,20 +2244,20 @@
       <c r="B19" s="29"/>
       <c r="C19" s="30"/>
       <c r="D19" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -2318,10 +2266,10 @@
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -2331,7 +2279,7 @@
       <c r="A22" s="27"/>
       <c r="B22" s="32"/>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -2341,7 +2289,7 @@
       <c r="A23" s="27"/>
       <c r="B23" s="26"/>
       <c r="C23" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2350,10 +2298,10 @@
     <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2362,7 +2310,7 @@
     <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2372,7 +2320,7 @@
     <row r="26" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2381,7 +2329,7 @@
     </row>
     <row r="27" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2391,7 +2339,7 @@
     </row>
     <row r="28" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="134">
   <si>
     <t>Catalog</t>
   </si>
@@ -440,12 +440,6 @@
   </si>
   <si>
     <t>Data Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Dashboards - K8s/RabbitMQ/PG/Mongo/Others (Evelyn)
-2. with rmm-datasource (Evelyn)
-3. Ansible - Modify MEM/PV/NS (Jim)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -517,57 +511,6 @@
   </si>
   <si>
     <t>adveiss.azurecr.io/coredns:1.2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>1. Update to 1.0.95 - Activation Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Version with tag (Alex)
-3. Ansible - Modify MEM/PV/NS (Jim)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Ansible - Modify MEM/PV/NS (Jim)
-2. Version with tag (Alex)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Ansible - Modify MEM/PV/NS (Jim)
-2. Version with tag (Alex)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>3. remove mongo-express (Alex)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -628,6 +571,71 @@
   <si>
     <t>1.0.95 image to private registry/Test new java opts
 Deploy Failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Ansible - Modify MEM/PV/NS (Jim)
+2. Version with tag (Alex) - Final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Ansible - Modify MEM/PV/NS (Jim)
+2. Version with tag (Alex)) - Final
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>3. remove mongo-express (Alex)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>1. Update to 1.0.95 - Activation Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Version with tag (Alex) - Final
+3. Ansible - Modify MEM/PV/NS (Jim)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Dashboards - K8s/RabbitMQ/PG/Mongo/Others (Evelyn)
+2. with rmm-datasource (Evelyn)
+3. Ansible - Modify MEM/PV/NS (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. login fail (TY)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,6 +945,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -963,9 +974,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1329,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1342,17 +1350,17 @@
     <col min="3" max="3" width="24.875" style="12" customWidth="1"/>
     <col min="4" max="4" width="23.625" style="12" customWidth="1"/>
     <col min="5" max="5" width="72.375" style="12" customWidth="1"/>
-    <col min="6" max="7" width="37.25" style="12" customWidth="1"/>
-    <col min="8" max="8" width="21.375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="12" customWidth="1"/>
-    <col min="10" max="10" width="26.75" style="12" customWidth="1"/>
-    <col min="11" max="13" width="18.625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="16" style="12" customWidth="1"/>
-    <col min="15" max="16" width="71.5" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="12"/>
+    <col min="6" max="8" width="37.25" style="12" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="26.75" style="12" customWidth="1"/>
+    <col min="12" max="14" width="18.625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="16" style="12" customWidth="1"/>
+    <col min="16" max="17" width="71.5" style="12" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1369,41 +1377,44 @@
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="H1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1414,30 +1425,31 @@
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
-      <c r="I2" s="24">
+      <c r="I2" s="17"/>
+      <c r="J2" s="25">
         <v>1</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
-      <c r="O2" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
       <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
@@ -1451,22 +1463,23 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="15" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
-      <c r="O3" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28" t="s">
+      <c r="O3" s="17"/>
+      <c r="P3" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1479,24 +1492,25 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="2">
+      <c r="I4" s="17"/>
+      <c r="J4" s="2">
         <v>3</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="17"/>
+      <c r="P4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
@@ -1505,22 +1519,23 @@
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="2">
+      <c r="I5" s="17"/>
+      <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
-      <c r="O5" s="2"/>
+      <c r="O5" s="17"/>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28" t="s">
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1530,7 +1545,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>47</v>
@@ -1538,31 +1553,34 @@
       <c r="G6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>6</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1024</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="L6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="17"/>
+      <c r="M6" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="N6" s="17"/>
-      <c r="O6" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="P6" s="23"/>
-    </row>
-    <row r="7" spans="1:16" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q6" s="23"/>
+    </row>
+    <row r="7" spans="1:17" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1570,7 +1588,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>47</v>
@@ -1578,30 +1596,33 @@
       <c r="G7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>0.5</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>8</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="L7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="17"/>
+      <c r="M7" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="N7" s="17"/>
-      <c r="O7" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="P7" s="23"/>
-    </row>
-    <row r="8" spans="1:16" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q7" s="23"/>
+    </row>
+    <row r="8" spans="1:17" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1612,7 +1633,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>47</v>
@@ -1620,34 +1641,37 @@
       <c r="G8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>6</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>32</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="L8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="M8" s="16" t="s">
         <v>47</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="P8" s="23"/>
-    </row>
-    <row r="9" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="O8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q8" s="23"/>
+    </row>
+    <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1658,7 +1682,7 @@
         <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>47</v>
@@ -1666,34 +1690,37 @@
       <c r="G9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="22">
+      <c r="J9" s="22">
         <v>0.25</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>10</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="L9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="M9" s="16" t="s">
         <v>47</v>
       </c>
       <c r="N9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="P9" s="23"/>
-    </row>
-    <row r="10" spans="1:16" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="O9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q9" s="23"/>
+    </row>
+    <row r="10" spans="1:17" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
       <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
@@ -1712,36 +1739,39 @@
       <c r="G10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>1.538</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>256</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="L10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="M10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="N10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q10" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="P10" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+    </row>
+    <row r="11" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1752,7 +1782,7 @@
         <v>99</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>47</v>
@@ -1760,34 +1790,39 @@
       <c r="G11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>0.128</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>10</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="L11" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="M11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="N11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="P11" s="23"/>
-    </row>
-    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="O11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1798,7 +1833,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>47</v>
@@ -1806,26 +1841,29 @@
       <c r="G12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="17"/>
+      <c r="L12" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="P12" s="23"/>
-    </row>
-    <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q12" s="23"/>
+    </row>
+    <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
@@ -1836,7 +1874,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>47</v>
@@ -1844,35 +1882,38 @@
       <c r="G13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>0.5</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="17"/>
+      <c r="L13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="17"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="P13" s="23"/>
-    </row>
-    <row r="14" spans="1:16" ht="48" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28" t="s">
+      <c r="O13" s="17"/>
+      <c r="P13" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q13" s="23"/>
+    </row>
+    <row r="14" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="25" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -1884,39 +1925,42 @@
       <c r="G14" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>2</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="17"/>
+      <c r="L14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="M14" s="16" t="s">
         <v>47</v>
       </c>
       <c r="N14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="P14" s="23" t="s">
+      <c r="O14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="21" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="48" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="29"/>
+      <c r="Q14" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="15" t="s">
         <v>102</v>
       </c>
@@ -1926,33 +1970,36 @@
       <c r="G15" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>1</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="17"/>
+      <c r="L15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="P15" s="23" t="s">
+      <c r="O15" s="17"/>
+      <c r="P15" s="21" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="48" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="29"/>
+      <c r="Q15" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="15" t="s">
         <v>102</v>
       </c>
@@ -1962,43 +2009,46 @@
       <c r="G16" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>0.5</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="17"/>
+      <c r="L16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="17"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
-      <c r="O16" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="P16" s="23" t="s">
+      <c r="O16" s="17"/>
+      <c r="P16" s="21" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I17" s="2">
-        <f>SUM(I2:I16)</f>
-        <v>23.416</v>
-      </c>
+      <c r="Q16" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J17" s="2">
         <f>SUM(J2:J16)</f>
+        <v>23.416</v>
+      </c>
+      <c r="K17" s="2">
+        <f>SUM(K2:K16)</f>
         <v>1340</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
@@ -2050,7 +2100,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2064,7 +2114,7 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="7" t="s">
         <v>57</v>
       </c>
@@ -2076,7 +2126,7 @@
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="2" t="s">
         <v>81</v>
       </c>
@@ -2092,8 +2142,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2106,8 +2156,8 @@
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="7" t="s">
         <v>79</v>
       </c>
@@ -2118,58 +2168,58 @@
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="28" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="7" t="s">
         <v>65</v>
       </c>
@@ -2178,8 +2228,8 @@
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="18" t="s">
         <v>76</v>
       </c>
@@ -2192,8 +2242,8 @@
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="7" t="s">
         <v>72</v>
       </c>
@@ -2202,9 +2252,9 @@
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="28" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="29" t="s">
         <v>66</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -2216,9 +2266,9 @@
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="7" t="s">
         <v>70</v>
       </c>
@@ -2228,9 +2278,9 @@
       <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="7" t="s">
         <v>69</v>
       </c>
@@ -2240,9 +2290,9 @@
       <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="7" t="s">
         <v>68</v>
       </c>
@@ -2252,7 +2302,7 @@
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
@@ -2264,8 +2314,8 @@
       <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="25" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2276,8 +2326,8 @@
       <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="2" t="s">
         <v>82</v>
       </c>
@@ -2286,8 +2336,8 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="2" t="s">
         <v>84</v>
       </c>
@@ -2296,7 +2346,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="13" t="s">
         <v>85</v>
       </c>
@@ -2308,7 +2358,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="13" t="s">
         <v>88</v>
       </c>
@@ -2318,7 +2368,7 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="13" t="s">
         <v>87</v>
       </c>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="135">
   <si>
     <t>Catalog</t>
   </si>
@@ -396,14 +396,6 @@
   </si>
   <si>
     <t>EdgeSense(Sephiroth)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prometheus-8.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grafana-1.22.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -499,10 +491,6 @@
   </si>
   <si>
     <t>adveiss.azurecr.io/minio:RELEASE.2018-12-06T01-27-43Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adveiss.azurecr.io/helm-rmm-grafana:1.14.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -569,11 +557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.0.95 image to private registry/Test new java opts
-Deploy Failure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Secret</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,6 +586,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. Dashboards - K8s/RabbitMQ/PG/Mongo/Others (Evelyn)
+2. with rmm-datasource (Evelyn)
+3. Ansible - Modify MEM/PV/NS (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. login fail (TY)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/helm-rmm-grafana:1.14.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(Evelyn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prometheus-8.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grafana-5.2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.96 image to private registry/Test new java opts
+Deploy Failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -612,7 +626,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>1. Update to 1.0.95 - Activation Name</t>
+      <t>1. Update to 1.0.96 - Activation Name (DeviceOn)</t>
     </r>
     <r>
       <rPr>
@@ -626,16 +640,6 @@
 2. Version with tag (Alex) - Final
 3. Ansible - Modify MEM/PV/NS (Jim)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Dashboards - K8s/RabbitMQ/PG/Mongo/Others (Evelyn)
-2. with rmm-datasource (Evelyn)
-3. Ansible - Modify MEM/PV/NS (Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. login fail (TY)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1339,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1377,13 +1381,13 @@
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>92</v>
@@ -1425,7 +1429,7 @@
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
@@ -1442,10 +1446,10 @@
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="23" t="s">
         <v>115</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1454,11 +1458,11 @@
         <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
@@ -1473,7 +1477,7 @@
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
       <c r="P3" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q3" s="2"/>
     </row>
@@ -1487,7 +1491,7 @@
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -1504,7 +1508,7 @@
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
       <c r="P4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="2"/>
     </row>
@@ -1545,7 +1549,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>47</v>
@@ -1553,8 +1557,8 @@
       <c r="G6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>102</v>
+      <c r="H6" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>94</v>
@@ -1574,7 +1578,7 @@
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
       <c r="P6" s="21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q6" s="23"/>
     </row>
@@ -1588,7 +1592,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>47</v>
@@ -1596,8 +1600,8 @@
       <c r="G7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>102</v>
+      <c r="H7" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>94</v>
@@ -1617,7 +1621,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
       <c r="P7" s="21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="23"/>
     </row>
@@ -1633,7 +1637,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>47</v>
@@ -1641,8 +1645,8 @@
       <c r="G8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>102</v>
+      <c r="H8" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>94</v>
@@ -1666,7 +1670,7 @@
         <v>47</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="23"/>
     </row>
@@ -1679,10 +1683,10 @@
         <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>47</v>
@@ -1690,8 +1694,8 @@
       <c r="G9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>102</v>
+      <c r="H9" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>94</v>
@@ -1715,7 +1719,7 @@
         <v>47</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q9" s="23"/>
     </row>
@@ -1728,19 +1732,19 @@
         <v>25</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>98</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>100</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>93</v>
@@ -1764,10 +1768,10 @@
         <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q10" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1779,19 +1783,19 @@
         <v>52</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>47</v>
+        <v>129</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>93</v>
@@ -1815,10 +1819,10 @@
         <v>47</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
@@ -1833,7 +1837,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>47</v>
@@ -1858,7 +1862,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
       <c r="P12" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q12" s="23"/>
     </row>
@@ -1874,7 +1878,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>47</v>
@@ -1901,7 +1905,7 @@
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
       <c r="P13" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="23"/>
     </row>
@@ -1917,16 +1921,16 @@
         <v>40</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>94</v>
@@ -1948,10 +1952,10 @@
         <v>47</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="23" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="48" x14ac:dyDescent="0.25">
@@ -1962,16 +1966,16 @@
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>94</v>
@@ -1987,10 +1991,10 @@
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="P15" s="21" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q15" s="23" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="48" x14ac:dyDescent="0.25">
@@ -2001,16 +2005,16 @@
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>94</v>
@@ -2026,10 +2030,10 @@
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
       <c r="P16" s="21" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2121,7 +2125,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F3" s="20"/>
     </row>
@@ -2131,7 +2135,7 @@
         <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="145">
   <si>
     <t>Catalog</t>
   </si>
@@ -139,18 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>postgres-1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rabbitmq-1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mongo-1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DNS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>es-rmm-1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Memory(G)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,14 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>minio-2.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Moby</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,14 +408,6 @@
   </si>
   <si>
     <t>Data Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Change all TCP NodePorts to Nginx Ports
-2. Mongo Exporter (Evelyn)
-3. recycling mechanism (Evelyn)
-4. 30days / 5secs -&gt; 158G
-5. Ansible - Modify MEM/PV/NS (Jim)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,20 +432,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. RBAC Control - Viewer
-2. K8s 1.11.3
-3. Testing PV Scaling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Kubespay with Moby (Jim)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ghost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adveiss.azurecr.io/es-mongo:3.6.9-stretch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -495,10 +453,6 @@
   </si>
   <si>
     <t>adveiss.azurecr.ioc/nginx-ingress-controller:0.19.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adveiss.azurecr.io/coredns:1.2.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -586,17 +540,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Dashboards - K8s/RabbitMQ/PG/Mongo/Others (Evelyn)
-2. with rmm-datasource (Evelyn)
-3. Ansible - Modify MEM/PV/NS (Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. login fail (TY)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adveiss.azurecr.io/helm-rmm-grafana:1.14.6</t>
+    <t>TODO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -605,10 +553,6 @@
   </si>
   <si>
     <t>prometheus-8.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grafana-5.2.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -640,6 +584,164 @@
 2. Version with tag (Alex) - Final
 3. Ansible - Modify MEM/PV/NS (Jim)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>1. Change all TCP NodePorts to Nginx Ports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Mongo Exporter (Evelyn)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>3. recycling mechanism (Evelyn)
+4. 30days / 5secs -&gt; 158G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+5. Ansible - Modify MEM/PV/NS (Jim)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>1. Dashboards - K8s/RabbitMQ/PG/Others (Evelyn)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+2. with rmm-datasource (Evelyn)
+3. Ansible - Modify MEM/PV/NS (Jim)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Ghost
+2. Testing PV Scaling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. RBAC Control - Viewer
+2. K8s 1.11.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.96 image to private registry/Test new java opts
+Deploy Failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(1.0.96)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/coredns:1.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(adveiss.azurecr.io/es-rmm-portal:1.0.96)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(adveiss.azurecr.io/es-rmm-worker:1.0.96)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(mongo-1.0.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(postgres-1.0.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(rabbitmq-1.0.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(es-rmm-1.0.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minio-2.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(minio-2.3.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(prometheus-8.4.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grafana-1.14.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(grafana-1.14.6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(nginx-ingress-0.28.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(core-dns-1.1.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/helm-rmm-grafana:latest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,7 +980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -955,9 +1057,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -977,6 +1076,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1341,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1352,19 +1460,20 @@
     <col min="1" max="1" width="25.5" style="12" customWidth="1"/>
     <col min="2" max="2" width="22.875" style="12" customWidth="1"/>
     <col min="3" max="3" width="24.875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="72.375" style="12" customWidth="1"/>
-    <col min="6" max="8" width="37.25" style="12" customWidth="1"/>
-    <col min="9" max="9" width="21.375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="12" customWidth="1"/>
-    <col min="11" max="11" width="26.75" style="12" customWidth="1"/>
-    <col min="12" max="14" width="18.625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="16" style="12" customWidth="1"/>
-    <col min="16" max="17" width="71.5" style="12" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="12"/>
+    <col min="4" max="4" width="32.5" style="12" customWidth="1"/>
+    <col min="5" max="5" width="23.625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="72.375" style="12" customWidth="1"/>
+    <col min="7" max="9" width="37.25" style="12" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="26.75" style="12" customWidth="1"/>
+    <col min="13" max="15" width="18.625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="16" style="12" customWidth="1"/>
+    <col min="17" max="18" width="71.5" style="12" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1375,50 +1484,53 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>44</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1428,93 +1540,96 @@
         <v>23</v>
       </c>
       <c r="D2" s="17"/>
-      <c r="E2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
-      <c r="J2" s="25">
+      <c r="J2" s="17"/>
+      <c r="K2" s="25">
         <v>1</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
-      <c r="P2" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D3" s="17"/>
-      <c r="E3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
-      <c r="P3" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29" t="s">
+      <c r="P3" s="17"/>
+      <c r="Q3" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
-      <c r="J4" s="2">
+      <c r="J4" s="17"/>
+      <c r="K4" s="2">
         <v>3</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
-      <c r="P4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
@@ -1524,539 +1639,570 @@
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
-      <c r="J5" s="2">
+      <c r="J5" s="17"/>
+      <c r="K5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
-      <c r="P5" s="2"/>
+      <c r="P5" s="17"/>
       <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29" t="s">
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="2">
+        <v>6</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1024</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="2">
-        <v>6</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1024</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q6" s="23"/>
-    </row>
-    <row r="7" spans="1:17" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
+      <c r="R6" s="23"/>
+    </row>
+    <row r="7" spans="1:18" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>47</v>
+      <c r="D7" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" s="2">
+        <v>43</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="2">
         <v>0.5</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>8</v>
       </c>
-      <c r="L7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="17"/>
+      <c r="M7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="O7" s="17"/>
-      <c r="P7" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q7" s="23"/>
-    </row>
-    <row r="8" spans="1:17" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="R7" s="23"/>
+    </row>
+    <row r="8" spans="1:18" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>47</v>
+      <c r="D8" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="2">
+        <v>43</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="2">
         <v>6</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>32</v>
       </c>
-      <c r="L8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>47</v>
+      <c r="M8" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="23"/>
-    </row>
-    <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" s="23"/>
+    </row>
+    <row r="9" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>99</v>
+        <v>38</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>47</v>
+        <v>136</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="22">
+        <v>43</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="22">
         <v>0.25</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>10</v>
       </c>
-      <c r="L9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>47</v>
+      <c r="M9" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q9" s="23"/>
-    </row>
-    <row r="10" spans="1:17" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" s="23"/>
+    </row>
+    <row r="10" spans="1:18" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
       <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>131</v>
+      <c r="D10" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>53</v>
+        <v>120</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10" s="2">
+        <v>119</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="2">
         <v>1.538</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>256</v>
       </c>
-      <c r="L10" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="M10" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>132</v>
+        <v>48</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>53</v>
+        <v>140</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="2">
+        <v>119</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="2">
         <v>0.128</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>10</v>
       </c>
-      <c r="L11" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="M11" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>47</v>
+      <c r="F12" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="2">
+        <v>43</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="2">
         <v>1</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
-      <c r="P12" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q12" s="23"/>
-    </row>
-    <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="R12" s="23"/>
+    </row>
+    <row r="13" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="R13" s="23"/>
+    </row>
+    <row r="14" spans="1:18" ht="48" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="R14" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="48" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q13" s="23"/>
-    </row>
-    <row r="14" spans="1:17" ht="48" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" s="2">
-        <v>2</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="48" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
-      <c r="P15" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q15" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="48" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="30"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="48" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>47</v>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" s="2">
+        <v>128</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="2">
         <v>0.5</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
-      <c r="P16" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q16" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J17" s="2">
-        <f>SUM(J2:J16)</f>
-        <v>23.416</v>
-      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K17" s="2">
         <f>SUM(K2:K16)</f>
+        <v>23.416</v>
+      </c>
+      <c r="L17" s="2">
+        <f>SUM(L2:L16)</f>
         <v>1340</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="J2:J3"/>
+  <mergeCells count="7">
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D14:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2088,283 +2234,283 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>96</v>
+      <c r="A2" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29" t="s">
-        <v>59</v>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2372,9 +2518,9 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2383,7 +2529,7 @@
     </row>
     <row r="27" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2393,7 +2539,7 @@
     </row>
     <row r="28" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="146">
   <si>
     <t>Catalog</t>
   </si>
@@ -399,24 +399,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. reboot test (Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Introduction of Data Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Data Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AlertManager (Evelyn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Ansible - Modify Domain Name (Jim)
-2. Ansible - Modify MEM/PV/NS (Jim)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -540,10 +527,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. login fail (TY)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TODO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -553,11 +536,6 @@
   </si>
   <si>
     <t>prometheus-8.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0.96 image to private registry/Test new java opts
-Deploy Failure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -596,55 +574,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>1. Change all TCP NodePorts to Nginx Ports</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Mongo Exporter (Evelyn)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>3. recycling mechanism (Evelyn)
-4. 30days / 5secs -&gt; 158G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-5. Ansible - Modify MEM/PV/NS (Jim)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>1. Dashboards - K8s/RabbitMQ/PG/Others (Evelyn)</t>
     </r>
     <r>
@@ -672,11 +601,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.0.96 image to private registry/Test new java opts
-Deploy Failure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TODO(1.0.96)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -742,6 +666,85 @@
   </si>
   <si>
     <t>adveiss.azurecr.io/helm-rmm-grafana:latest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input IP/Port on RMM-Portal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.96 image to private registry/Test new java opts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>1. Change all TCP NodePorts to Nginx Ports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>. recycling mechanism (Evelyn)
+3. 30days / 5secs -&gt; 158G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Ansible - Modify MEM/PV/NS (Jim)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. AlertManager (Evelyn)
+2. Mongo Exporter (Evelyn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. reboot test (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Ansible - Modify Domain Name (Jim)
+2. Ansible - Modify MEM/PV/NS (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Ansible - Modify Domain Name/IP (Jim)
+2. Ansible - Modify MEM/PV/NS (Jim)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -980,7 +983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1047,6 +1050,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1449,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1469,11 +1475,11 @@
     <col min="12" max="12" width="26.75" style="12" customWidth="1"/>
     <col min="13" max="15" width="18.625" style="12" customWidth="1"/>
     <col min="16" max="16" width="16" style="12" customWidth="1"/>
-    <col min="17" max="18" width="71.5" style="12" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="12"/>
+    <col min="17" max="19" width="71.5" style="12" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1484,7 +1490,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -1493,13 +1499,13 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>88</v>
@@ -1528,9 +1534,12 @@
       <c r="R1" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="S1" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1542,13 +1551,13 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="25">
+      <c r="K2" s="26">
         <v>1</v>
       </c>
       <c r="L2" s="17"/>
@@ -1559,14 +1568,15 @@
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+        <v>119</v>
+      </c>
+      <c r="S2" s="24"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
       <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
@@ -1582,7 +1592,7 @@
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
-      <c r="K3" s="26"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="17"/>
       <c r="M3" s="15" t="s">
         <v>50</v>
@@ -1590,14 +1600,15 @@
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
-      <c r="Q3" s="24" t="s">
-        <v>106</v>
+      <c r="Q3" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28" t="s">
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1623,13 +1634,14 @@
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="2" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
@@ -1652,23 +1664,24 @@
       <c r="P5" s="17"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28" t="s">
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>43</v>
@@ -1697,24 +1710,25 @@
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="R6" s="23"/>
-    </row>
-    <row r="7" spans="1:18" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
+      <c r="S6" s="24"/>
+    </row>
+    <row r="7" spans="1:19" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>43</v>
@@ -1743,12 +1757,13 @@
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="R7" s="23"/>
-    </row>
-    <row r="8" spans="1:18" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="S7" s="24"/>
+    </row>
+    <row r="8" spans="1:19" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1756,13 +1771,13 @@
         <v>24</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>43</v>
@@ -1795,12 +1810,13 @@
         <v>43</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R8" s="23"/>
-    </row>
-    <row r="9" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="S8" s="24"/>
+    </row>
+    <row r="9" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1808,13 +1824,13 @@
         <v>38</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>43</v>
@@ -1847,12 +1863,15 @@
         <v>43</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R9" s="23"/>
-    </row>
-    <row r="10" spans="1:18" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="S9" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
       <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
@@ -1860,10 +1879,10 @@
         <v>25</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>94</v>
@@ -1872,10 +1891,10 @@
         <v>49</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>89</v>
@@ -1899,14 +1918,15 @@
         <v>43</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+        <v>142</v>
+      </c>
+      <c r="S10" s="24"/>
+    </row>
+    <row r="11" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1914,22 +1934,22 @@
         <v>48</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>49</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>89</v>
@@ -1953,14 +1973,15 @@
         <v>43</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="R11" s="23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+        <v>118</v>
+      </c>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1968,13 +1989,13 @@
         <v>27</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>43</v>
@@ -1999,12 +2020,13 @@
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="21" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="R12" s="23"/>
-    </row>
-    <row r="13" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="S12" s="24"/>
+    </row>
+    <row r="13" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>33</v>
       </c>
@@ -2012,13 +2034,13 @@
         <v>34</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>43</v>
@@ -2045,32 +2067,33 @@
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="21" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="R13" s="23"/>
-    </row>
-    <row r="14" spans="1:18" ht="48" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28" t="s">
+      <c r="S13" s="24"/>
+    </row>
+    <row r="14" spans="1:19" ht="48" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>135</v>
+      <c r="D14" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>128</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>43</v>
@@ -2095,28 +2118,29 @@
         <v>43</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="48" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="29"/>
+        <v>140</v>
+      </c>
+      <c r="S14" s="24"/>
+    </row>
+    <row r="15" spans="1:19" ht="48" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="15" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>43</v>
@@ -2135,28 +2159,29 @@
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R15" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="48" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="29"/>
+        <v>140</v>
+      </c>
+      <c r="S15" s="24"/>
+    </row>
+    <row r="16" spans="1:19" ht="48" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>43</v>
@@ -2175,11 +2200,12 @@
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>121</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="S16" s="24"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K17" s="2">
@@ -2250,7 +2276,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2264,24 +2290,24 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -2292,8 +2318,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2306,8 +2332,8 @@
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="7" t="s">
         <v>75</v>
       </c>
@@ -2318,58 +2344,58 @@
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="28" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="7" t="s">
         <v>61</v>
       </c>
@@ -2378,8 +2404,8 @@
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="18" t="s">
         <v>72</v>
       </c>
@@ -2392,8 +2418,8 @@
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="7" t="s">
         <v>68</v>
       </c>
@@ -2402,9 +2428,9 @@
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="28" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="29" t="s">
         <v>62</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -2416,9 +2442,9 @@
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="7" t="s">
         <v>66</v>
       </c>
@@ -2428,9 +2454,9 @@
       <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="7" t="s">
         <v>65</v>
       </c>
@@ -2440,9 +2466,9 @@
       <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="7" t="s">
         <v>64</v>
       </c>
@@ -2452,7 +2478,7 @@
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
@@ -2464,8 +2490,8 @@
       <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="26" t="s">
         <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2476,8 +2502,8 @@
       <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="2" t="s">
         <v>78</v>
       </c>
@@ -2486,8 +2512,8 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="2" t="s">
         <v>80</v>
       </c>
@@ -2496,7 +2522,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="13" t="s">
         <v>81</v>
       </c>
@@ -2508,7 +2534,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="13" t="s">
         <v>84</v>
       </c>
@@ -2518,7 +2544,7 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="13" t="s">
         <v>83</v>
       </c>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="168">
   <si>
     <t>Catalog</t>
   </si>
@@ -211,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Monitoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,14 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get Started</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chapter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Accessing the Endpoints</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EdgeSense</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,26 +259,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Viewing the Nginx Resources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewing the Endpoints (Ingress)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ifconfig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Viewing the Configuration of Authorization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rebooting System</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Setting Environment to request with the DNS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,22 +271,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.kube/config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Basic Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TroubleShooting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Specifications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DNS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,34 +287,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>References</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Kube CLI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Contact Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Specs of Our Applications</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Namespaces/Apps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Namespace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,18 +331,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13.2.4  mimic (stable)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Introduction of Data Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Data Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Self-Image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,10 +348,6 @@
   </si>
   <si>
     <t>Kubespay with Moby (Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adveiss.azurecr.io/es-mongo:3.6.9-stretch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -471,33 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>1. RabbitMQ queue size/length (Alex)
-size : 28/7=4G=4294967269
-length=4294967269/1000=4294967</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Ansible - Modify MEM/PV/NS (Jim)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Secret</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -596,11 +493,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. RBAC Control - Viewer
-2. K8s 1.11.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TODO(1.0.96)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -641,7 +533,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TODO(minio-2.3.4)</t>
+    <t>minio-2.3.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -654,14 +546,6 @@
   </si>
   <si>
     <t>TODO(grafana-1.14.6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(nginx-ingress-0.28.2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(core-dns-1.1.1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -747,12 +631,234 @@
 2. Ansible - Modify MEM/PV/NS (Jim)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. RBAC Control - Viewer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2. Add Basic_Auth to KubeAPI Config (Jim)
+3. Create .kube Config (Jim)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Started</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Started</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TroubleShooting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TroubleShooting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>References</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>References</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contact Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduction of Monitoring System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitoring System (Evelyn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebooting System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Management (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the Nginx Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the Monitoring Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the Endpoints (Ingress)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the Endpoints (Ingress)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessing the Endpoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessing the Endpoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dashboards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grafana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k8s/postgres/rabbitmq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prometheus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grafana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting the Configuration of Authentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.kube/config-viewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIK-1642WI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO
+80 - http
+53 - dns
+1883 - mqtt
+8883 - mqtt ssl
+6083~6088 - kvm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Appendix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config-viewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.2.4  mimic (stable)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deployment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubespray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>1. RabbitMQ queue size/length (Alex)
+size : 28/7=4G=4294967269
+length=4294967269/1000=4294967</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Ansible - Modify MEM/PV/NS (Jim)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/es-mongo:3.6.9-stretch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.7.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core-dns-1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx-ingress-0.28.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongo-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postgres-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -819,8 +925,15 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,6 +967,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,7 +1102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -997,9 +1116,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1036,9 +1152,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1054,6 +1167,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1063,6 +1179,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1091,6 +1210,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1394,35 +1534,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="35.625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="34.625" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="12"/>
+    <col min="1" max="2" width="35.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="11" customWidth="1"/>
+    <col min="4" max="5" width="34.625" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1435,16 +1578,31 @@
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="43" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1455,28 +1613,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="12" customWidth="1"/>
-    <col min="5" max="5" width="23.625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="72.375" style="12" customWidth="1"/>
-    <col min="7" max="9" width="37.25" style="12" customWidth="1"/>
-    <col min="10" max="10" width="21.375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="17.875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="26.75" style="12" customWidth="1"/>
-    <col min="13" max="15" width="18.625" style="12" customWidth="1"/>
-    <col min="16" max="16" width="16" style="12" customWidth="1"/>
-    <col min="17" max="19" width="71.5" style="12" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="25.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23.625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="72.375" style="11" customWidth="1"/>
+    <col min="7" max="9" width="37.25" style="11" customWidth="1"/>
+    <col min="10" max="10" width="21.375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="26.75" style="11" customWidth="1"/>
+    <col min="13" max="15" width="18.625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="16" style="11" customWidth="1"/>
+    <col min="17" max="19" width="71.5" style="11" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1490,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -1499,16 +1657,16 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>37</v>
@@ -1535,700 +1693,751 @@
         <v>41</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="25">
+        <v>1</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" s="23"/>
+    </row>
+    <row r="3" spans="1:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="26">
-        <v>1</v>
-      </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="S2" s="24"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="S3" s="23"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="15" t="s">
+      <c r="C4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="2">
-        <v>3</v>
-      </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="2" t="s">
-        <v>143</v>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="B5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="16"/>
       <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="2"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="D7" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="2">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1024</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="R7" s="21"/>
+      <c r="S7" s="23"/>
+    </row>
+    <row r="8" spans="1:19" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>8</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" s="21"/>
+      <c r="S8" s="23"/>
+    </row>
+    <row r="9" spans="1:19" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="2">
+        <v>6</v>
+      </c>
+      <c r="L9" s="2">
+        <v>32</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="R9" s="21"/>
+      <c r="S9" s="23"/>
+    </row>
+    <row r="10" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="2">
+        <v>10</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="2">
-        <v>6</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1024</v>
-      </c>
-      <c r="M6" s="15" t="s">
+      <c r="R10" s="21"/>
+      <c r="S10" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1.538</v>
+      </c>
+      <c r="L11" s="2">
+        <v>256</v>
+      </c>
+      <c r="M11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="21" t="s">
+      <c r="N11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="S11" s="23"/>
+    </row>
+    <row r="12" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="R6" s="23"/>
-      <c r="S6" s="24"/>
-    </row>
-    <row r="7" spans="1:19" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="2">
-        <v>8</v>
-      </c>
-      <c r="M7" s="15" t="s">
+      <c r="E12" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="L12" s="2">
+        <v>10</v>
+      </c>
+      <c r="M12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="R7" s="23"/>
-      <c r="S7" s="24"/>
-    </row>
-    <row r="8" spans="1:19" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="2">
-        <v>6</v>
-      </c>
-      <c r="L8" s="2">
-        <v>32</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="R8" s="23"/>
-      <c r="S8" s="24"/>
-    </row>
-    <row r="9" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="L9" s="2">
-        <v>10</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="R9" s="23"/>
-      <c r="S9" s="24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="N12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1.538</v>
-      </c>
-      <c r="L10" s="2">
-        <v>256</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="R10" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="S10" s="24"/>
-    </row>
-    <row r="11" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.128</v>
-      </c>
-      <c r="L11" s="2">
-        <v>10</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="R12" s="23"/>
-      <c r="S12" s="24"/>
     </row>
     <row r="13" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R13" s="21"/>
+      <c r="S13" s="23"/>
+    </row>
+    <row r="14" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D14" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="R13" s="23"/>
-      <c r="S13" s="24"/>
-    </row>
-    <row r="14" spans="1:19" ht="48" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="2">
-        <v>2</v>
-      </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q14" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="R14" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="S14" s="24"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:19" ht="48" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
-      <c r="B15" s="30"/>
+      <c r="B15" s="29" t="s">
+        <v>7</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="I15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="21" t="s">
+      <c r="N15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="R15" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="R15" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="S15" s="24"/>
+      <c r="S15" s="23"/>
     </row>
     <row r="16" spans="1:19" ht="48" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="30"/>
       <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="R16" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="S16" s="23"/>
+    </row>
+    <row r="17" spans="1:19" ht="48" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="2">
         <v>0.5</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="15" t="s">
+      <c r="L17" s="16"/>
+      <c r="M17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="21" t="s">
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="R17" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="R16" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="S16" s="24"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K17" s="2">
-        <f>SUM(K2:K16)</f>
+      <c r="S17" s="23"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K18" s="2">
+        <f>SUM(K2:K17)</f>
         <v>23.416</v>
       </c>
-      <c r="L17" s="2">
-        <f>SUM(L2:L16)</f>
+      <c r="L18" s="2">
+        <f>SUM(L2:L17)</f>
         <v>1340</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2238,21 +2447,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="12" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="44.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="70.375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="38.75" style="12" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="37" style="11" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="49.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="70.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="38.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2260,100 +2469,92 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="20"/>
+        <v>76</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
-      <c r="B3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
-      <c r="B4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
-      <c r="B5" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="30"/>
+      <c r="C5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="30"/>
-      <c r="C6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="30"/>
-      <c r="C7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-    </row>
-    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="30"/>
       <c r="C8" s="31"/>
@@ -2385,204 +2586,372 @@
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
     </row>
-    <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="30"/>
-      <c r="C13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="30"/>
-      <c r="C14" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="30"/>
-      <c r="C15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="20"/>
+      <c r="C15" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="30"/>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="20"/>
+      <c r="E16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="20"/>
+      <c r="D17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="30"/>
       <c r="C18" s="31"/>
-      <c r="D18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="20"/>
+      <c r="D18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
-      <c r="B20" s="2" t="s">
-        <v>54</v>
+      <c r="B20" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="20"/>
+        <v>68</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
-      <c r="B21" s="26" t="s">
-        <v>76</v>
-      </c>
+      <c r="B21" s="33"/>
       <c r="C21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="20"/>
+        <v>67</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
-      <c r="B22" s="33"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="20"/>
+        <v>69</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="B23" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
-      <c r="B24" s="13" t="s">
-        <v>81</v>
+      <c r="B24" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
-      <c r="B25" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="2"/>
+      <c r="B25" s="37" t="s">
+        <v>155</v>
+      </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="13" t="s">
-        <v>83</v>
+      <c r="B26" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+    <row r="27" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+      <c r="B41" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A27:A41"/>
+    <mergeCell ref="B29:B34"/>
     <mergeCell ref="A2:A26"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="F7:F12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="B5:B19"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="167">
   <si>
     <t>Catalog</t>
   </si>
@@ -424,10 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TODO(Evelyn)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,10 +486,6 @@
   <si>
     <t>1. Ghost
 2. Testing PV Scaling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(1.0.96)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -851,6 +843,10 @@
   </si>
   <si>
     <t>postgres-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(adveiss.azurecr.io/es-ota-worker:1.0.40)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1562,7 +1558,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1593,15 +1589,15 @@
     </row>
     <row r="4" spans="1:5" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1616,7 +1612,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1648,7 +1644,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -1693,7 +1689,7 @@
         <v>41</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1701,24 +1697,24 @@
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="25">
@@ -1732,10 +1728,10 @@
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S2" s="23"/>
     </row>
@@ -1753,13 +1749,13 @@
         <v>84</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="33"/>
@@ -1771,10 +1767,10 @@
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S3" s="23"/>
     </row>
@@ -1820,7 +1816,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>43</v>
@@ -1843,7 +1839,7 @@
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -1884,13 +1880,13 @@
         <v>29</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>43</v>
@@ -1931,10 +1927,10 @@
         <v>30</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>86</v>
@@ -1980,10 +1976,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>87</v>
@@ -2019,7 +2015,7 @@
         <v>43</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="23"/>
@@ -2033,10 +2029,10 @@
         <v>38</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>88</v>
@@ -2076,7 +2072,7 @@
       </c>
       <c r="R10" s="21"/>
       <c r="S10" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2088,10 +2084,10 @@
         <v>25</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>78</v>
@@ -2100,10 +2096,10 @@
         <v>49</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>73</v>
@@ -2127,10 +2123,10 @@
         <v>43</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="S11" s="23"/>
     </row>
@@ -2143,22 +2139,22 @@
         <v>48</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E12" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>114</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>73</v>
@@ -2182,11 +2178,11 @@
         <v>43</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R12" s="23"/>
       <c r="S12" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
@@ -2198,7 +2194,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>32</v>
@@ -2229,7 +2225,7 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R13" s="21"/>
       <c r="S13" s="23"/>
@@ -2243,13 +2239,13 @@
         <v>34</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>43</v>
@@ -2276,7 +2272,7 @@
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R14" s="21"/>
       <c r="S14" s="23"/>
@@ -2290,19 +2286,19 @@
         <v>46</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>100</v>
+      <c r="G15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>43</v>
@@ -2327,10 +2323,10 @@
         <v>43</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S15" s="23"/>
     </row>
@@ -2343,13 +2339,13 @@
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
       <c r="F16" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>43</v>
@@ -2368,10 +2364,10 @@
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S16" s="23"/>
     </row>
@@ -2384,13 +2380,13 @@
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
       <c r="F17" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>100</v>
+        <v>166</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>43</v>
@@ -2409,10 +2405,10 @@
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="S17" s="23"/>
     </row>
@@ -2513,14 +2509,14 @@
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F4" s="18"/>
     </row>
@@ -2540,7 +2536,7 @@
       <c r="A6" s="28"/>
       <c r="B6" s="30"/>
       <c r="C6" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -2609,14 +2605,14 @@
         <v>63</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="30"/>
       <c r="C14" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2626,7 +2622,7 @@
       <c r="A15" s="28"/>
       <c r="B15" s="30"/>
       <c r="C15" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>59</v>
@@ -2675,10 +2671,10 @@
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -2687,7 +2683,7 @@
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>68</v>
@@ -2719,7 +2715,7 @@
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2729,7 +2725,7 @@
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>70</v>
@@ -2741,18 +2737,18 @@
     <row r="25" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2761,7 +2757,7 @@
     </row>
     <row r="27" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>55</v>
@@ -2779,21 +2775,21 @@
         <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2803,7 +2799,7 @@
       <c r="A30" s="26"/>
       <c r="B30" s="33"/>
       <c r="C30" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2813,7 +2809,7 @@
       <c r="A31" s="26"/>
       <c r="B31" s="33"/>
       <c r="C31" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>61</v>
@@ -2835,7 +2831,7 @@
       <c r="A33" s="26"/>
       <c r="B33" s="33"/>
       <c r="C33" s="41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>61</v>
@@ -2848,17 +2844,17 @@
       <c r="B34" s="27"/>
       <c r="C34" s="42"/>
       <c r="D34" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2868,7 +2864,7 @@
     <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2878,7 +2874,7 @@
     <row r="37" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>70</v>
@@ -2891,7 +2887,7 @@
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2901,7 +2897,7 @@
       <c r="A39" s="26"/>
       <c r="B39" s="27"/>
       <c r="C39" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2910,7 +2906,7 @@
     <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2920,7 +2916,7 @@
     <row r="41" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="465" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="465"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="181">
   <si>
     <t>Catalog</t>
   </si>
@@ -311,10 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserManual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EdgeSense(Sephiroth)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,10 +352,6 @@
   </si>
   <si>
     <t>adveiss.azurecr.io/es-rabbitmq:3.7.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adveiss.azurecr.io/minio:RELEASE.2018-12-06T01-27-43Z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -404,83 +396,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Ansible - Modify MEM/PV/NS (Jim)
-2. Version with tag (Alex)) - Final
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>3. remove mongo-express (Alex)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TODO(Evelyn)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>prometheus-8.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>1. Update to 1.0.96 - Activation Name (DeviceOn)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Version with tag (Alex) - Final
-3. Ansible - Modify MEM/PV/NS (Jim)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>1. Dashboards - K8s/RabbitMQ/PG/Others (Evelyn)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-2. with rmm-datasource (Evelyn)
-3. Ansible - Modify MEM/PV/NS (Jim)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -489,6 +409,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DONE</t>
+  </si>
+  <si>
     <t>adveiss.azurecr.io/coredns:1.2.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,22 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TODO(mongo-1.0.0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(postgres-1.0.0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(rabbitmq-1.0.0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(es-rmm-1.0.0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>minio-2.3.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -529,24 +436,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TODO(prometheus-8.4.2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>grafana-1.14.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TODO(grafana-1.14.6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adveiss.azurecr.io/helm-rmm-grafana:latest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Issue</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input IP/Port on RMM-Portal</t>
   </si>
   <si>
     <t>input IP/Port on RMM-Portal</t>
@@ -624,24 +526,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. RBAC Control - Viewer
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>2. Add Basic_Auth to KubeAPI Config (Jim)
-3. Create .kube Config (Jim)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Get Started</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -762,15 +646,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TODO
-80 - http
-53 - dns
-1883 - mqtt
-8883 - mqtt ssl
-6083~6088 - kvm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Appendix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -781,6 +656,9 @@
   <si>
     <t>13.2.4  mimic (stable)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(Jim)</t>
   </si>
   <si>
     <t>TODO(Jim)</t>
@@ -847,6 +725,217 @@
   </si>
   <si>
     <t>TODO(adveiss.azurecr.io/es-ota-worker:1.0.40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rabbitmq-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserManual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>1. Dashboards - K8s/RabbitMQ/PG/Others (Evelyn)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2. with rmm-datasource (Evelyn)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Ansible - Modify MEM/PV/NS (Jim)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>1. Update to 1.0.96 - Activation Name (DeviceOn)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Version with tag
+3. Ansible - Modify MEM/PV/NS (Jim)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es-rmm-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. RBAC Control - Viewer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2. Add Basic_Auth to KubeAPI Config (Jim)
+3. Create .kube Config (Jim)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Ansible - Modify MEM/PV/NS (Jim)
+2. Version with tag (Alex)) - Final
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>3. remove mongo-express (Alex)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. RBAC Control - Viewer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2. Add Basic_Auth to KubeAPI Config (Jim)
+3. Add .kube Config (Jim)
+4. basic_auth.csv - /etc/auth
+5. ca.crt - /home/ubuntu/ca</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Dashboards - K8s/RabbitMQ/PG/Others (Evelyn)
+2. with rmm-datasource (Evelyn)
+3. Ansible - Modify MEM/PV/NS (Jim)</t>
+  </si>
+  <si>
+    <t>Others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBAC-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker-Secrets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker-Secrets-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postgres-Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postgres-Exporter-0.6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/minio:RELEASE.2018-12-06T01-27-43Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RabbitMQ-Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postgres-Exporter-0.6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RabbitMQ-Exporter-0.3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/postgres_exporter:v0.4.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/rabbitmq-exporter:v0.29.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO
+22 - ssh
+80 - http
+53 - dns
+1883 - mqtt
+8883 - mqtt ssl
+6083~6088 - kvm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,8 +1011,8 @@
       <charset val="136"/>
     </font>
     <font>
+      <strike/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1098,7 +1187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1199,15 +1288,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1228,6 +1308,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1532,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1558,7 +1650,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1589,15 +1681,15 @@
     </row>
     <row r="4" spans="1:5" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
-      <c r="E4" s="43" t="s">
-        <v>152</v>
+      <c r="E4" s="40" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1609,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1713,7 @@
     <col min="2" max="2" width="22.875" style="11" customWidth="1"/>
     <col min="3" max="3" width="24.875" style="11" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="23.625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="34.125" style="11" customWidth="1"/>
     <col min="6" max="6" width="72.375" style="11" customWidth="1"/>
     <col min="7" max="9" width="37.25" style="11" customWidth="1"/>
     <col min="10" max="10" width="21.375" style="11" customWidth="1"/>
@@ -1644,7 +1736,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -1653,13 +1745,13 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>72</v>
@@ -1689,32 +1781,32 @@
         <v>41</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="20" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="25">
@@ -1728,10 +1820,10 @@
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="18" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="S2" s="23"/>
     </row>
@@ -1746,16 +1838,16 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="33"/>
@@ -1767,10 +1859,10 @@
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="23" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="S3" s="23"/>
     </row>
@@ -1780,12 +1872,12 @@
         <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -1800,7 +1892,7 @@
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -1816,7 +1908,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="20" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>43</v>
@@ -1839,7 +1931,7 @@
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -1880,13 +1972,13 @@
         <v>29</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>102</v>
+        <v>154</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>43</v>
@@ -1915,7 +2007,7 @@
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="19" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="R7" s="21"/>
       <c r="S7" s="23"/>
@@ -1927,13 +2019,13 @@
         <v>30</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>103</v>
+        <v>155</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>43</v>
@@ -1962,7 +2054,7 @@
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R8" s="21"/>
       <c r="S8" s="23"/>
@@ -1975,14 +2067,14 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>104</v>
+      <c r="D9" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>43</v>
@@ -2015,7 +2107,7 @@
         <v>43</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="23"/>
@@ -2029,13 +2121,13 @@
         <v>38</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>43</v>
@@ -2068,231 +2160,209 @@
         <v>43</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R10" s="21"/>
       <c r="S10" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
+      <c r="C11" s="14" t="s">
+        <v>175</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>78</v>
+        <v>177</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>179</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>49</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1.538</v>
-      </c>
-      <c r="L11" s="2">
-        <v>256</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="R11" s="21" t="s">
-        <v>117</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="23"/>
     </row>
-    <row r="12" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>48</v>
+      <c r="B12" s="26"/>
+      <c r="C12" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>112</v>
+        <v>176</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+    </row>
+    <row r="13" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="2">
-        <v>0.128</v>
-      </c>
-      <c r="L12" s="2">
-        <v>10</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="16"/>
+        <v>1.538</v>
+      </c>
+      <c r="L13" s="2">
+        <v>256</v>
+      </c>
       <c r="M13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="R13" s="21"/>
+      <c r="N13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>108</v>
+      </c>
       <c r="S13" s="23"/>
     </row>
-    <row r="14" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>43</v>
+        <v>9</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="16"/>
+        <v>0.128</v>
+      </c>
+      <c r="L14" s="2">
+        <v>10</v>
+      </c>
       <c r="M14" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
+      <c r="N14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="Q14" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="R14" s="21"/>
-      <c r="S14" s="23"/>
-    </row>
-    <row r="15" spans="1:19" ht="48" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
-      <c r="B15" s="29" t="s">
-        <v>7</v>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>100</v>
+        <v>27</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>43</v>
@@ -2304,42 +2374,40 @@
         <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
       <c r="Q15" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R15" s="21" t="s">
-        <v>115</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="R15" s="21"/>
       <c r="S15" s="23"/>
     </row>
-    <row r="16" spans="1:19" ht="48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="14" t="s">
-        <v>101</v>
+        <v>34</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>43</v>
@@ -2351,36 +2419,42 @@
         <v>43</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="16"/>
+      <c r="N16" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R16" s="21" t="s">
-        <v>115</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="R16" s="21"/>
       <c r="S16" s="23"/>
     </row>
     <row r="17" spans="1:19" ht="48" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
-      <c r="B17" s="30"/>
+      <c r="B17" s="29" t="s">
+        <v>7</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="14" t="s">
-        <v>166</v>
+        <v>46</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>43</v>
@@ -2395,45 +2469,195 @@
         <v>74</v>
       </c>
       <c r="K17" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
+      <c r="N17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="Q17" s="19" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="S17" s="23"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="48" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="K18" s="2">
-        <f>SUM(K2:K17)</f>
-        <v>23.416</v>
-      </c>
-      <c r="L18" s="2">
-        <f>SUM(L2:L17)</f>
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="R18" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="S18" s="23"/>
+    </row>
+    <row r="19" spans="1:19" ht="48" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="R19" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="S19" s="23"/>
+    </row>
+    <row r="20" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+    </row>
+    <row r="21" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E15:E17"/>
+  <mergeCells count="9">
+    <mergeCell ref="E17:E19"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A2:A17"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2443,10 +2667,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2482,7 +2706,7 @@
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>55</v>
@@ -2502,21 +2726,21 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="29" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F4" s="18"/>
     </row>
@@ -2536,7 +2760,7 @@
       <c r="A6" s="28"/>
       <c r="B6" s="30"/>
       <c r="C6" s="29" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -2595,24 +2819,24 @@
     <row r="13" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="30"/>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="40" t="s">
-        <v>131</v>
+      <c r="F13" s="37" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="30"/>
       <c r="C14" s="6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2622,7 +2846,7 @@
       <c r="A15" s="28"/>
       <c r="B15" s="30"/>
       <c r="C15" s="29" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>59</v>
@@ -2671,10 +2895,10 @@
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -2683,7 +2907,7 @@
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="25" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>68</v>
@@ -2714,8 +2938,8 @@
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
-      <c r="B23" s="37" t="s">
-        <v>146</v>
+      <c r="B23" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2725,7 +2949,7 @@
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="22" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>70</v>
@@ -2736,19 +2960,19 @@
     </row>
     <row r="25" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
-      <c r="B25" s="37" t="s">
-        <v>153</v>
+      <c r="B25" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2756,8 +2980,8 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
-        <v>132</v>
+      <c r="A27" s="35" t="s">
+        <v>122</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>55</v>
@@ -2775,21 +2999,21 @@
         <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="23" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="25" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2799,7 +3023,7 @@
       <c r="A30" s="26"/>
       <c r="B30" s="33"/>
       <c r="C30" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2809,7 +3033,7 @@
       <c r="A31" s="26"/>
       <c r="B31" s="33"/>
       <c r="C31" s="29" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>61</v>
@@ -2830,8 +3054,8 @@
     <row r="33" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="33"/>
-      <c r="C33" s="41" t="s">
-        <v>141</v>
+      <c r="C33" s="38" t="s">
+        <v>131</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>61</v>
@@ -2842,19 +3066,19 @@
     <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="27"/>
-      <c r="C34" s="42"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="23" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2863,8 +3087,8 @@
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
-      <c r="B36" s="37" t="s">
-        <v>146</v>
+      <c r="B36" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2874,7 +3098,7 @@
     <row r="37" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="25" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>70</v>
@@ -2887,7 +3111,7 @@
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2897,7 +3121,7 @@
       <c r="A39" s="26"/>
       <c r="B39" s="27"/>
       <c r="C39" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2905,8 +3129,8 @@
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
-      <c r="B40" s="37" t="s">
-        <v>153</v>
+      <c r="B40" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2914,31 +3138,21 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="A41" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
       <c r="F41" s="18"/>
-    </row>
-    <row r="42" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A27:A41"/>
+    <mergeCell ref="A27:A40"/>
     <mergeCell ref="B29:B34"/>
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="C6:C11"/>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="465"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
   <si>
     <t>Catalog</t>
   </si>
@@ -391,21 +391,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Ansible - Modify MEM/PV/NS (Jim)
-2. Version with tag (Alex) - Final</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TODO(Evelyn)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>prometheus-8.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Ghost
-2. Testing PV Scaling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -783,6 +773,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>es-rmm-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBAC-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker-Secrets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker-Secrets-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postgres-Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postgres-Exporter-0.6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/minio:RELEASE.2018-12-06T01-27-43Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RabbitMQ-Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postgres-Exporter-0.6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RabbitMQ-Exporter-0.3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/postgres_exporter:v0.4.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/rabbitmq-exporter:v0.29.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO
+22 - ssh
+80 - http
+53 - dns
+1883 - mqtt
+8883 - mqtt ssl
+6083~6088 - kvm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -804,138 +864,30 @@
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
-2. Version with tag
-3. Ansible - Modify MEM/PV/NS (Jim)</t>
+2. Ansible - Modify MEM/PV/NS (Jim)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>es-rmm-1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. RBAC Control - Viewer
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>2. Add Basic_Auth to KubeAPI Config (Jim)
-3. Create .kube Config (Jim)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Ansible - Modify MEM/PV/NS (Jim)
-2. Version with tag (Alex)) - Final
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>3. remove mongo-express (Alex)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. RBAC Control - Viewer
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>2. Add Basic_Auth to KubeAPI Config (Jim)
+    <t>1. Change IP test (Terry)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Ghost
+2. Testing PV Scaling
+3. Change IP test (Terry)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Ansible - Modify MEM/PV/NS (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Add Basic_Auth to KubeAPI Config (Jim)
 3. Add .kube Config (Jim)
 4. basic_auth.csv - /etc/auth
-5. ca.crt - /home/ubuntu/ca</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Dashboards - K8s/RabbitMQ/PG/Others (Evelyn)
-2. with rmm-datasource (Evelyn)
-3. Ansible - Modify MEM/PV/NS (Jim)</t>
-  </si>
-  <si>
-    <t>Others</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RBAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RBAC-1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Docker-Secrets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Docker-Secrets-1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Postgres-Exporter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Postgres-Exporter-0.6.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adveiss.azurecr.io/minio:RELEASE.2018-12-06T01-27-43Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RabbitMQ-Exporter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Postgres-Exporter-0.6.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RabbitMQ-Exporter-0.3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adveiss.azurecr.io/postgres_exporter:v0.4.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adveiss.azurecr.io/rabbitmq-exporter:v0.29.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO
-22 - ssh
-80 - http
-53 - dns
-1883 - mqtt
-8883 - mqtt ssl
-6083~6088 - kvm</t>
+5. ca.crt - /home/ubuntu/ca
+6. ubuntu couldn't access basic_auth.csv/config-dsadmin/critical files</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,7 +895,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1006,13 +958,6 @@
       <strike/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="12"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1624,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1650,7 +1595,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1681,15 +1626,15 @@
     </row>
     <row r="4" spans="1:5" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="40" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1703,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1736,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -1781,32 +1726,32 @@
         <v>41</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="25">
@@ -1819,15 +1764,11 @@
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>93</v>
-      </c>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="21"/>
       <c r="S2" s="23"/>
     </row>
-    <row r="3" spans="1:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="23" t="s">
         <v>3</v>
@@ -1841,13 +1782,13 @@
         <v>83</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="33"/>
@@ -1858,11 +1799,9 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
-      <c r="Q3" s="23" t="s">
-        <v>162</v>
-      </c>
+      <c r="Q3" s="23"/>
       <c r="R3" s="23" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="S3" s="23"/>
     </row>
@@ -1908,7 +1847,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>43</v>
@@ -1931,9 +1870,11 @@
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R5" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1963,7 +1904,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="29" t="s">
         <v>4</v>
@@ -1972,13 +1913,13 @@
         <v>29</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>43</v>
@@ -2007,22 +1948,22 @@
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="19" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="R7" s="21"/>
       <c r="S7" s="23"/>
     </row>
-    <row r="8" spans="1:19" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="29"/>
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>85</v>
@@ -2054,12 +1995,12 @@
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="19" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="R8" s="21"/>
       <c r="S8" s="23"/>
     </row>
-    <row r="9" spans="1:19" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -2068,10 +2009,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>86</v>
@@ -2107,7 +2048,7 @@
         <v>43</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="23"/>
@@ -2121,13 +2062,13 @@
         <v>38</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>43</v>
@@ -2164,7 +2105,7 @@
       </c>
       <c r="R10" s="21"/>
       <c r="S10" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2173,16 +2114,16 @@
         <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>49</v>
@@ -2208,16 +2149,16 @@
       <c r="A12" s="28"/>
       <c r="B12" s="26"/>
       <c r="C12" s="14" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>49</v>
@@ -2246,10 +2187,10 @@
         <v>25</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>77</v>
@@ -2258,10 +2199,10 @@
         <v>49</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>73</v>
@@ -2285,10 +2226,10 @@
         <v>43</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S13" s="23"/>
     </row>
@@ -2301,22 +2242,22 @@
         <v>48</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>73</v>
@@ -2340,11 +2281,11 @@
         <v>43</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R14" s="23"/>
       <c r="S14" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
@@ -2356,7 +2297,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
@@ -2387,7 +2328,7 @@
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R15" s="21"/>
       <c r="S15" s="23"/>
@@ -2401,13 +2342,13 @@
         <v>34</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>43</v>
@@ -2434,12 +2375,12 @@
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R16" s="21"/>
       <c r="S16" s="23"/>
     </row>
-    <row r="17" spans="1:19" ht="48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="29" t="s">
         <v>7</v>
@@ -2448,13 +2389,13 @@
         <v>46</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>43</v>
@@ -2485,14 +2426,14 @@
         <v>43</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S17" s="23"/>
     </row>
-    <row r="18" spans="1:19" ht="48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="30"/>
       <c r="C18" s="2" t="s">
@@ -2501,7 +2442,7 @@
       <c r="D18" s="42"/>
       <c r="E18" s="42"/>
       <c r="F18" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>43</v>
@@ -2526,14 +2467,14 @@
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="19" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R18" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S18" s="23"/>
     </row>
-    <row r="19" spans="1:19" ht="48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="30"/>
       <c r="C19" s="2" t="s">
@@ -2542,7 +2483,7 @@
       <c r="D19" s="43"/>
       <c r="E19" s="43"/>
       <c r="F19" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>43</v>
@@ -2567,23 +2508,23 @@
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="19" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S19" s="23"/>
     </row>
-    <row r="20" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="25" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -2601,18 +2542,20 @@
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
-      <c r="Q20" s="23"/>
+      <c r="Q20" s="23" t="s">
+        <v>178</v>
+      </c>
       <c r="R20" s="23"/>
       <c r="S20" s="23"/>
     </row>
-    <row r="21" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="27"/>
       <c r="C21" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -2620,28 +2563,26 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q21" s="23" t="s">
-        <v>165</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="Q21" s="23"/>
       <c r="R21" s="23"/>
       <c r="S21" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2706,7 +2647,7 @@
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>55</v>
@@ -2733,14 +2674,14 @@
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F4" s="18"/>
     </row>
@@ -2760,7 +2701,7 @@
       <c r="A6" s="28"/>
       <c r="B6" s="30"/>
       <c r="C6" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -2829,14 +2770,14 @@
         <v>63</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="30"/>
       <c r="C14" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2846,7 +2787,7 @@
       <c r="A15" s="28"/>
       <c r="B15" s="30"/>
       <c r="C15" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>59</v>
@@ -2895,10 +2836,10 @@
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -2907,7 +2848,7 @@
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>68</v>
@@ -2939,7 +2880,7 @@
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2949,7 +2890,7 @@
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>70</v>
@@ -2961,18 +2902,18 @@
     <row r="25" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2981,7 +2922,7 @@
     </row>
     <row r="27" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>55</v>
@@ -2999,21 +2940,21 @@
         <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -3023,7 +2964,7 @@
       <c r="A30" s="26"/>
       <c r="B30" s="33"/>
       <c r="C30" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -3033,7 +2974,7 @@
       <c r="A31" s="26"/>
       <c r="B31" s="33"/>
       <c r="C31" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>61</v>
@@ -3055,7 +2996,7 @@
       <c r="A33" s="26"/>
       <c r="B33" s="33"/>
       <c r="C33" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>61</v>
@@ -3068,17 +3009,17 @@
       <c r="B34" s="27"/>
       <c r="C34" s="39"/>
       <c r="D34" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3088,7 +3029,7 @@
     <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3098,7 +3039,7 @@
     <row r="37" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>70</v>
@@ -3111,7 +3052,7 @@
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -3121,7 +3062,7 @@
       <c r="A39" s="26"/>
       <c r="B39" s="27"/>
       <c r="C39" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -3130,7 +3071,7 @@
     <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="465" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="179">
   <si>
     <t>Catalog</t>
   </si>
@@ -239,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Viewing the DNS Resources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EdgeSense</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,10 +264,6 @@
   </si>
   <si>
     <t>References of Other Documents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic Function</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -588,10 +580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Accessing the Endpoints</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dashboards</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -613,10 +601,6 @@
   </si>
   <si>
     <t>FAQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting the Configuration of Authentication</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -888,6 +872,22 @@
 4. basic_auth.csv - /etc/auth
 5. ca.crt - /home/ubuntu/ca
 6. ubuntu couldn't access basic_auth.csv/config-dsadmin/critical files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the DNS Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessing the Endpoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting the Configuration for Authentication</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1595,7 +1595,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1626,15 +1626,15 @@
     </row>
     <row r="4" spans="1:5" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="40" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1648,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1681,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -1690,16 +1690,16 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>37</v>
@@ -1726,7 +1726,7 @@
         <v>41</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1734,24 +1734,24 @@
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="25">
@@ -1779,16 +1779,16 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="33"/>
@@ -1801,7 +1801,7 @@
       <c r="P3" s="16"/>
       <c r="Q3" s="23"/>
       <c r="R3" s="23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="S3" s="23"/>
     </row>
@@ -1811,12 +1811,12 @@
         <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -1831,7 +1831,7 @@
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -1847,7 +1847,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>43</v>
@@ -1870,10 +1870,10 @@
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -1913,13 +1913,13 @@
         <v>29</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>43</v>
@@ -1931,7 +1931,7 @@
         <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K7" s="2">
         <v>6</v>
@@ -1948,7 +1948,7 @@
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R7" s="21"/>
       <c r="S7" s="23"/>
@@ -1960,13 +1960,13 @@
         <v>30</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>43</v>
@@ -1978,7 +1978,7 @@
         <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K8" s="2">
         <v>0.5</v>
@@ -1995,7 +1995,7 @@
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="R8" s="21"/>
       <c r="S8" s="23"/>
@@ -2009,13 +2009,13 @@
         <v>24</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>43</v>
@@ -2027,7 +2027,7 @@
         <v>43</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K9" s="2">
         <v>6</v>
@@ -2048,7 +2048,7 @@
         <v>43</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="23"/>
@@ -2062,13 +2062,13 @@
         <v>38</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>43</v>
@@ -2080,7 +2080,7 @@
         <v>43</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K10" s="20">
         <v>0.25</v>
@@ -2101,11 +2101,11 @@
         <v>43</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R10" s="21"/>
       <c r="S10" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2114,16 +2114,16 @@
         <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>168</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>172</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>49</v>
@@ -2134,13 +2134,17 @@
       <c r="I11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K11" s="20"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="16"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
+      <c r="N11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
       <c r="Q11" s="23"/>
       <c r="R11" s="23"/>
       <c r="S11" s="23"/>
@@ -2149,16 +2153,16 @@
       <c r="A12" s="28"/>
       <c r="B12" s="26"/>
       <c r="C12" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>169</v>
-      </c>
       <c r="E12" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>49</v>
@@ -2169,13 +2173,17 @@
       <c r="I12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K12" s="20"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="N12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
@@ -2187,25 +2195,25 @@
         <v>25</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>49</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K13" s="2">
         <v>1.538</v>
@@ -2226,10 +2234,10 @@
         <v>43</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S13" s="23"/>
     </row>
@@ -2242,25 +2250,25 @@
         <v>48</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K14" s="2">
         <v>0.128</v>
@@ -2281,11 +2289,11 @@
         <v>43</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="R14" s="23"/>
       <c r="S14" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
@@ -2297,13 +2305,13 @@
         <v>27</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>43</v>
@@ -2315,7 +2323,7 @@
         <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -2328,7 +2336,7 @@
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R15" s="21"/>
       <c r="S15" s="23"/>
@@ -2342,13 +2350,13 @@
         <v>34</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>43</v>
@@ -2360,7 +2368,7 @@
         <v>43</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K16" s="2">
         <v>0.5</v>
@@ -2375,7 +2383,7 @@
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R16" s="21"/>
       <c r="S16" s="23"/>
@@ -2389,13 +2397,13 @@
         <v>46</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>43</v>
@@ -2407,7 +2415,7 @@
         <v>43</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K17" s="2">
         <v>2</v>
@@ -2426,10 +2434,10 @@
         <v>43</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S17" s="23"/>
     </row>
@@ -2442,7 +2450,7 @@
       <c r="D18" s="42"/>
       <c r="E18" s="42"/>
       <c r="F18" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>43</v>
@@ -2454,7 +2462,7 @@
         <v>43</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -2467,10 +2475,10 @@
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="R18" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S18" s="23"/>
     </row>
@@ -2483,7 +2491,7 @@
       <c r="D19" s="43"/>
       <c r="E19" s="43"/>
       <c r="F19" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>43</v>
@@ -2495,7 +2503,7 @@
         <v>43</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K19" s="2">
         <v>0.5</v>
@@ -2508,23 +2516,23 @@
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S19" s="23"/>
     </row>
     <row r="20" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -2532,7 +2540,7 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
@@ -2543,7 +2551,7 @@
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="23" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="R20" s="23"/>
       <c r="S20" s="23"/>
@@ -2552,10 +2560,10 @@
       <c r="A21" s="44"/>
       <c r="B21" s="27"/>
       <c r="C21" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -2563,26 +2571,26 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="23"/>
       <c r="R21" s="23"/>
       <c r="S21" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2610,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2642,12 +2650,12 @@
         <v>51</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>55</v>
@@ -2655,7 +2663,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -2667,21 +2675,21 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F4" s="18"/>
     </row>
@@ -2689,7 +2697,7 @@
       <c r="A5" s="28"/>
       <c r="B5" s="30"/>
       <c r="C5" s="6" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
@@ -2701,7 +2709,7 @@
       <c r="A6" s="28"/>
       <c r="B6" s="30"/>
       <c r="C6" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -2751,7 +2759,7 @@
       <c r="A12" s="28"/>
       <c r="B12" s="30"/>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2761,23 +2769,23 @@
       <c r="A13" s="28"/>
       <c r="B13" s="30"/>
       <c r="C13" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="30"/>
       <c r="C14" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2787,13 +2795,13 @@
       <c r="A15" s="28"/>
       <c r="B15" s="30"/>
       <c r="C15" s="29" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="18"/>
     </row>
@@ -2802,10 +2810,10 @@
       <c r="B16" s="30"/>
       <c r="C16" s="31"/>
       <c r="D16" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="18"/>
     </row>
@@ -2814,10 +2822,10 @@
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
       <c r="D17" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="18"/>
     </row>
@@ -2826,20 +2834,20 @@
       <c r="B18" s="30"/>
       <c r="C18" s="31"/>
       <c r="D18" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -2848,10 +2856,10 @@
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2861,7 +2869,7 @@
       <c r="A21" s="28"/>
       <c r="B21" s="33"/>
       <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -2871,7 +2879,7 @@
       <c r="A22" s="28"/>
       <c r="B22" s="27"/>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2880,7 +2888,7 @@
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="34" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2890,10 +2898,10 @@
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
       <c r="B24" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2902,18 +2910,18 @@
     <row r="25" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2922,7 +2930,7 @@
     </row>
     <row r="27" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>55</v>
@@ -2930,7 +2938,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -2940,21 +2948,21 @@
         <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2964,7 +2972,7 @@
       <c r="A30" s="26"/>
       <c r="B30" s="33"/>
       <c r="C30" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2974,10 +2982,10 @@
       <c r="A31" s="26"/>
       <c r="B31" s="33"/>
       <c r="C31" s="29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2996,10 +3004,10 @@
       <c r="A33" s="26"/>
       <c r="B33" s="33"/>
       <c r="C33" s="38" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3009,17 +3017,17 @@
       <c r="B34" s="27"/>
       <c r="C34" s="39"/>
       <c r="D34" s="23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3029,7 +3037,7 @@
     <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="34" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3039,10 +3047,10 @@
     <row r="37" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -3052,7 +3060,7 @@
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -3062,7 +3070,7 @@
       <c r="A39" s="26"/>
       <c r="B39" s="27"/>
       <c r="C39" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -3071,7 +3079,7 @@
     <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3080,7 +3088,7 @@
     </row>
     <row r="41" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="18"/>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="183">
   <si>
     <t>Catalog</t>
   </si>
@@ -867,27 +867,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Basic Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the DNS Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessing the Endpoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting the Configuration for Authentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2. Add Basic_Auth to KubeAPI Config (Jim)
-3. Add .kube Config (Jim)
+3. Add .kube Config (Jim) - add ip
 4. basic_auth.csv - /etc/auth
 5. ca.crt - /home/ubuntu/ca
 6. ubuntu couldn't access basic_auth.csv/config-dsadmin/critical files</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Basic Function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewing the DNS Resources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accessing the Endpoints</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting the Configuration for Authentication</t>
+    <t>Components</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoreDNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nginx-Ingress-Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ingress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,7 +911,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -961,6 +977,14 @@
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1129,8 +1153,9 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1197,30 +1222,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1266,9 +1288,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1633,7 +1659,7 @@
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1648,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1730,7 +1756,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1754,7 +1780,7 @@
         <v>140</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="25">
+      <c r="K2" s="24">
         <v>1</v>
       </c>
       <c r="L2" s="16"/>
@@ -1766,11 +1792,11 @@
       <c r="P2" s="16"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="21"/>
-      <c r="S2" s="23"/>
+      <c r="S2" s="22"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1791,7 +1817,7 @@
         <v>140</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="33"/>
+      <c r="K3" s="32"/>
       <c r="L3" s="16"/>
       <c r="M3" s="15" t="s">
         <v>43</v>
@@ -1799,14 +1825,14 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23" t="s">
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="S3" s="23"/>
+      <c r="S3" s="22"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
@@ -1822,7 +1848,7 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="27"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="16"/>
       <c r="M4" s="14" t="s">
         <v>50</v>
@@ -1830,15 +1856,15 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="23" t="s">
         <v>82</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1878,8 +1904,8 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
@@ -1905,8 +1931,8 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1951,11 +1977,11 @@
         <v>173</v>
       </c>
       <c r="R7" s="21"/>
-      <c r="S7" s="23"/>
+      <c r="S7" s="22"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1998,10 +2024,10 @@
         <v>173</v>
       </c>
       <c r="R8" s="21"/>
-      <c r="S8" s="23"/>
+      <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2051,10 +2077,10 @@
         <v>143</v>
       </c>
       <c r="R9" s="21"/>
-      <c r="S9" s="23"/>
+      <c r="S9" s="22"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -2104,13 +2130,13 @@
         <v>86</v>
       </c>
       <c r="R10" s="21"/>
-      <c r="S10" s="23" t="s">
+      <c r="S10" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -2137,7 +2163,9 @@
       <c r="J11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="20">
+        <v>0.1</v>
+      </c>
       <c r="L11" s="16"/>
       <c r="M11" s="14"/>
       <c r="N11" s="15" t="s">
@@ -2145,13 +2173,13 @@
       </c>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="14" t="s">
         <v>161</v>
       </c>
@@ -2176,7 +2204,9 @@
       <c r="J12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="20"/>
+      <c r="K12" s="20">
+        <v>0.1</v>
+      </c>
       <c r="L12" s="16"/>
       <c r="M12" s="14"/>
       <c r="N12" s="15" t="s">
@@ -2184,13 +2214,13 @@
       </c>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
     </row>
     <row r="13" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="14" t="s">
         <v>25</v>
       </c>
@@ -2239,10 +2269,10 @@
       <c r="R13" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="S13" s="23"/>
+      <c r="S13" s="22"/>
     </row>
     <row r="14" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
@@ -2291,13 +2321,13 @@
       <c r="Q14" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23" t="s">
+      <c r="R14" s="22"/>
+      <c r="S14" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
@@ -2339,10 +2369,10 @@
         <v>106</v>
       </c>
       <c r="R15" s="21"/>
-      <c r="S15" s="23"/>
+      <c r="S15" s="22"/>
     </row>
     <row r="16" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
@@ -2386,20 +2416,20 @@
         <v>107</v>
       </c>
       <c r="R16" s="21"/>
-      <c r="S16" s="23"/>
+      <c r="S16" s="22"/>
     </row>
     <row r="17" spans="1:19" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="40" t="s">
         <v>154</v>
       </c>
       <c r="F17" s="20" t="s">
@@ -2439,16 +2469,16 @@
       <c r="R17" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="S17" s="23"/>
+      <c r="S17" s="22"/>
     </row>
     <row r="18" spans="1:19" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="20" t="s">
         <v>93</v>
       </c>
@@ -2480,16 +2510,16 @@
       <c r="R18" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="S18" s="23"/>
+      <c r="S18" s="22"/>
     </row>
     <row r="19" spans="1:19" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="20" t="s">
         <v>150</v>
       </c>
@@ -2521,11 +2551,11 @@
       <c r="R19" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="S19" s="23"/>
+      <c r="S19" s="22"/>
     </row>
     <row r="20" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="24" t="s">
         <v>155</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2550,15 +2580,15 @@
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
-      <c r="Q20" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
+      <c r="Q20" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
     </row>
     <row r="21" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="2" t="s">
         <v>158</v>
       </c>
@@ -2587,9 +2617,9 @@
       <c r="P21" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23" t="s">
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2616,10 +2646,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2654,7 +2684,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>152</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2668,7 +2698,7 @@
       <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="6" t="s">
         <v>52</v>
       </c>
@@ -2679,438 +2709,482 @@
       </c>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="30"/>
       <c r="C5" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="29" t="s">
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-    </row>
-    <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="6" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="6" t="s">
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="6" t="s">
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="6" t="s">
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="2" t="s">
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="24" t="s">
+        <v>110</v>
+      </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A24" s="27"/>
+      <c r="B24" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="34" t="s">
-        <v>136</v>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="2"/>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="2"/>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="23" t="s">
-        <v>64</v>
-      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="23" t="s">
-        <v>52</v>
-      </c>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="2" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="23" t="s">
-        <v>116</v>
-      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>122</v>
+    <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="2" t="s">
-        <v>124</v>
-      </c>
+    <row r="30" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="2"/>
+    <row r="31" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="2"/>
+    <row r="32" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>60</v>
-      </c>
+      <c r="A33" s="25"/>
+      <c r="B33" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="A34" s="25"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="2"/>
+    <row r="37" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
+    <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
       <c r="B38" s="26"/>
-      <c r="C38" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="2" t="s">
-        <v>129</v>
-      </c>
+    <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="34" t="s">
-        <v>136</v>
+    <row r="40" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+    </row>
+    <row r="58" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A27:A40"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="B20:B22"/>
+  <mergeCells count="14">
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A31:A44"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="A2:A30"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="B5:B19"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="465" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
     <sheet name="Software" sheetId="2" r:id="rId2"/>
     <sheet name="UserManual" sheetId="3" r:id="rId3"/>
+    <sheet name="Testing" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="184">
   <si>
     <t>Catalog</t>
   </si>
@@ -65,10 +66,6 @@
   </si>
   <si>
     <t>32G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1TB*2 HDD (OS 0.4TB Ceph 1.6TB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -203,7 +200,314 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TODO(Evelyn)</t>
+    <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introductiuon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subSection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EdgeSense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grafana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prometheus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting Environment to request with the DNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>References of Other Documents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authorization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endpoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kube CLI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namespace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EdgeSense(Sephiroth)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduction of Data Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self-Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Private Registry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcr.io/google-containers/hyperkube:v1.11.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubespay with Moby (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/es-postgres:9.6.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/es-rabbitmq:3.7.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.ioc/nginx-ingress-controller:0.19.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prometheus-8.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/coredns:1.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minio-2.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minio-2.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grafana-1.14.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/helm-rmm-grafana:latest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input IP/Port on RMM-Portal</t>
+  </si>
+  <si>
+    <t>input IP/Port on RMM-Portal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. AlertManager (Evelyn)
+2. Mongo Exporter (Evelyn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. reboot test (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Started</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Started</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TroubleShooting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TroubleShooting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>References</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>References</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contact Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduction of Monitoring System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitoring System (Evelyn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebooting System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Management (Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the Nginx Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the Monitoring Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the Endpoints (Ingress)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the Endpoints (Ingress)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessing the Endpoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dashboards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grafana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k8s/postgres/rabbitmq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prometheus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grafana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.kube/config-viewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIK-1642WI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Appendix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config-viewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.2.4  mimic (stable)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -211,143 +515,228 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Introductiuon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Section</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Preface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subSection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Deployment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubespray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/es-mongo:3.6.9-stretch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.7.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core-dns-1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx-ingress-0.28.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongo-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postgres-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(adveiss.azurecr.io/es-ota-worker:1.0.40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rabbitmq-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserManual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es-rmm-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBAC-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker-Secrets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker-Secrets-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postgres-Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postgres-Exporter-0.6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/minio:RELEASE.2018-12-06T01-27-43Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RabbitMQ-Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postgres-Exporter-0.6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RabbitMQ-Exporter-0.3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/postgres_exporter:v0.4.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/rabbitmq-exporter:v0.29.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Change IP test (Terry)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Ghost
+2. Testing PV Scaling
+3. Change IP test (Terry)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewing the DNS Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessing the Endpoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting the Configuration for Authentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Components</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoreDNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nginx-Ingress-Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ingress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EdgeSense</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Grafana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prometheus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RabbitMQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ifconfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting Environment to request with the DNS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>References of Other Documents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DNS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authorization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Endpoints</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kube CLI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Namespace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>network</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EdgeSense(Sephiroth)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prom/prometheus:v2.5.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Introduction of Data Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Self-Image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Private Registry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gcr.io/google-containers/hyperkube:v1.11.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kubespay with Moby (Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adveiss.azurecr.io/es-postgres:9.6.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adveiss.azurecr.io/es-rabbitmq:3.7.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adveiss.azurecr.ioc/nginx-ingress-controller:0.19.0</t>
+    <t>Ceph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/kubernetes/perf-tests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/prometheus:v2.5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1TB*2 HDD (OS 0.5TB Ceph 1.5TB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TODO
+22 - ssh
+53 - dns
+80 - http
+443 https
+15672
+27017
+1883 - mqtt
+8883 - mqtt ssl
+3000
+5432
+8080
+9000
+9090
+9187
+9419
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>6083~6088 - kvm</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. RabbitMQ queue size/length (Alex)
+size : 28/7=4G=4294967269
+length=4294967269/1000=4294967</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -365,79 +754,6 @@
       </rPr>
       <t xml:space="preserve">1. OTA Testing </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Ansible - Modify MEM/PV/NS (Jim)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Secret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(Evelyn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prometheus-8.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>adveiss.azurecr.io/coredns:1.2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(adveiss.azurecr.io/es-rmm-portal:1.0.96)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(adveiss.azurecr.io/es-rmm-worker:1.0.96)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minio-2.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minio-2.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grafana-1.14.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adveiss.azurecr.io/helm-rmm-grafana:latest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Issue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input IP/Port on RMM-Portal</t>
-  </si>
-  <si>
-    <t>input IP/Port on RMM-Portal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0.96 image to private registry/Test new java opts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -475,238 +791,6 @@
       <t>. recycling mechanism (Evelyn)
 3. 30days / 5secs -&gt; 158G</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-4. Ansible - Modify MEM/PV/NS (Jim)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. AlertManager (Evelyn)
-2. Mongo Exporter (Evelyn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. reboot test (Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Ansible - Modify Domain Name (Jim)
-2. Ansible - Modify MEM/PV/NS (Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Ansible - Modify Domain Name/IP (Jim)
-2. Ansible - Modify MEM/PV/NS (Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get Started</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get Started</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TroubleShooting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TroubleShooting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>References</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>References</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contact Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monitoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Introduction of Monitoring System</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monitoring System (Evelyn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rebooting System</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Management (Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewing the Nginx Resources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewing the Monitoring Resources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewing the Endpoints (Ingress)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewing the Endpoints (Ingress)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accessing the Endpoints</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dashboards</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grafana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k8s/postgres/rabbitmq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prometheus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grafana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.kube/config-viewer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Router</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EIK-1642WI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Appendix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>config-viewer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13.2.4  mimic (stable)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(Jim)</t>
-  </si>
-  <si>
-    <t>TODO(Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deployment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kubespray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>1. RabbitMQ queue size/length (Alex)
-size : 28/7=4G=4294967269
-length=4294967269/1000=4294967</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Ansible - Modify MEM/PV/NS (Jim)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adveiss.azurecr.io/es-mongo:3.6.9-stretch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2.7.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>core-dns-1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nginx-ingress-0.28.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mongo-1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postgres-1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(adveiss.azurecr.io/es-ota-worker:1.0.40)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rabbitmq-1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserManual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -735,175 +819,41 @@
     <r>
       <rPr>
         <b/>
+        <strike/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
       </rPr>
       <t>2. with rmm-datasource (Evelyn)</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Ansible - Modify MEM/PV/NS (Jim)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>es-rmm-1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Others</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RBAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RBAC-1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Docker-Secrets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Docker-Secrets-1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Postgres-Exporter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Postgres-Exporter-0.6.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adveiss.azurecr.io/minio:RELEASE.2018-12-06T01-27-43Z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RabbitMQ-Exporter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Postgres-Exporter-0.6.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RabbitMQ-Exporter-0.3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adveiss.azurecr.io/postgres_exporter:v0.4.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adveiss.azurecr.io/rabbitmq-exporter:v0.29.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO
-22 - ssh
-80 - http
-53 - dns
-1883 - mqtt
-8883 - mqtt ssl
-6083~6088 - kvm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>1. Update to 1.0.96 - Activation Name (DeviceOn)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Ansible - Modify MEM/PV/NS (Jim)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Change IP test (Terry)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Ghost
-2. Testing PV Scaling
-3. Change IP test (Terry)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Ansible - Modify MEM/PV/NS (Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic Function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewing the DNS Resources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accessing the Endpoints</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting the Configuration for Authentication</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. Add Basic_Auth to KubeAPI Config (Jim)
-3. Add .kube Config (Jim) - add ip
-4. basic_auth.csv - /etc/auth
-5. ca.crt - /home/ubuntu/ca
-6. ubuntu couldn't access basic_auth.csv/config-dsadmin/critical files</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Components</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoreDNS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nginx-Ingress-Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ingress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Update to 1.0.96 - Activation Name (DeviceOn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Update to 1.0.97 - Activation Name (DeviceOn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.97 image to private registry/Test new java opts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config, config-dsadmin — /etc/config (root) — 600 —fill in IP
+basic_auth.csv — /etc/auth (root) — 600—add into kube-apiserver.yaml and add volumeMount
+ca.crt — /home/ubuntu/ca (root,ubuntu) — 644
+config — /home/ubuntu/config (root,ubuntu) — 644 —fill in IP—fill in IP and CA in .kube (ubuntu) — keep root .kube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(adveiss.azurecr.io/es-rmm-portal:1.0.97)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(adveiss.azurecr.io/es-rmm-worker:1.0.97)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -973,7 +923,6 @@
       <b/>
       <strike/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1157,7 +1106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1290,6 +1239,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1596,7 +1560,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1618,10 +1582,10 @@
         <v>10</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1629,38 +1593,38 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:5" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="340.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="39" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1674,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1692,7 +1656,9 @@
     <col min="12" max="12" width="26.75" style="11" customWidth="1"/>
     <col min="13" max="15" width="18.625" style="11" customWidth="1"/>
     <col min="16" max="16" width="16" style="11" customWidth="1"/>
-    <col min="17" max="19" width="71.5" style="11" customWidth="1"/>
+    <col min="17" max="17" width="132.375" style="11" customWidth="1"/>
+    <col min="18" max="18" width="54.75" style="11" customWidth="1"/>
+    <col min="19" max="19" width="71.5" style="11" customWidth="1"/>
     <col min="20" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
@@ -1707,7 +1673,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -1716,76 +1682,76 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="20" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>140</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="24">
         <v>1</v>
       </c>
-      <c r="L2" s="16"/>
+      <c r="L2" s="16">
+        <v>0</v>
+      </c>
       <c r="M2" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
@@ -1800,64 +1766,64 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>140</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="32"/>
-      <c r="L3" s="16"/>
+      <c r="L3" s="16">
+        <v>0</v>
+      </c>
       <c r="M3" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="S3" s="22"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="26"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="L4" s="16">
+        <v>0</v>
+      </c>
+      <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -1865,41 +1831,41 @@
     <row r="5" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="20" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="2">
         <v>3</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="14" t="s">
-        <v>50</v>
+      <c r="L5" s="16">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -1907,7 +1873,7 @@
       <c r="A6" s="27"/>
       <c r="B6" s="28"/>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -1916,12 +1882,14 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="2">
+      <c r="K6" s="16">
         <v>0</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="14" t="s">
-        <v>50</v>
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
@@ -1932,32 +1900,32 @@
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K7" s="2">
         <v>6</v>
@@ -1965,46 +1933,44 @@
       <c r="L7" s="2">
         <v>1024</v>
       </c>
-      <c r="M7" s="14" t="s">
-        <v>50</v>
+      <c r="M7" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="R7" s="21"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
       <c r="S7" s="22"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K8" s="2">
         <v>0.5</v>
@@ -2012,18 +1978,16 @@
       <c r="L8" s="2">
         <v>8</v>
       </c>
-      <c r="M8" s="14" t="s">
-        <v>50</v>
+      <c r="M8" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="R8" s="21"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
       <c r="S8" s="22"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2032,28 +1996,28 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K9" s="2">
         <v>6</v>
@@ -2061,20 +2025,20 @@
       <c r="L9" s="2">
         <v>32</v>
       </c>
-      <c r="M9" s="14" t="s">
-        <v>50</v>
+      <c r="M9" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" s="18" t="s">
-        <v>143</v>
+        <v>42</v>
+      </c>
+      <c r="Q9" s="48" t="s">
+        <v>174</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="22"/>
@@ -2085,28 +2049,28 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K10" s="20">
         <v>0.25</v>
@@ -2114,62 +2078,66 @@
       <c r="L10" s="2">
         <v>10</v>
       </c>
-      <c r="M10" s="14" t="s">
-        <v>50</v>
+      <c r="M10" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="R10" s="21"/>
       <c r="S10" s="22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>49</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K11" s="20">
         <v>0.1</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="14"/>
+      <c r="L11" s="16">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="N11" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
@@ -2180,37 +2148,41 @@
     <row r="12" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="25"/>
-      <c r="C12" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>49</v>
+      <c r="C12" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K12" s="20">
         <v>0.1</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="14"/>
+      <c r="L12" s="16">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="N12" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
@@ -2221,29 +2193,29 @@
     <row r="13" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>88</v>
+      <c r="C13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K13" s="2">
         <v>1.538</v>
@@ -2251,23 +2223,23 @@
       <c r="L13" s="2">
         <v>256</v>
       </c>
-      <c r="M13" s="14" t="s">
-        <v>50</v>
+      <c r="M13" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="S13" s="22"/>
     </row>
@@ -2276,29 +2248,29 @@
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="14" t="s">
+      <c r="C14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="E14" s="20" t="s">
         <v>88</v>
       </c>
+      <c r="F14" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="J14" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K14" s="2">
         <v>0.128</v>
@@ -2306,263 +2278,269 @@
       <c r="L14" s="2">
         <v>10</v>
       </c>
-      <c r="M14" s="14" t="s">
-        <v>50</v>
+      <c r="M14" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="R14" s="22"/>
       <c r="S14" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="14" t="s">
-        <v>50</v>
+      <c r="L15" s="16">
+        <v>0</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
-      <c r="Q15" s="19" t="s">
-        <v>106</v>
-      </c>
+      <c r="Q15" s="19"/>
       <c r="R15" s="21"/>
       <c r="S15" s="22"/>
     </row>
-    <row r="16" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K16" s="2">
         <v>0.5</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="14" t="s">
-        <v>50</v>
+      <c r="L16" s="16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
-      <c r="Q16" s="19" t="s">
-        <v>107</v>
-      </c>
+      <c r="Q16" s="19"/>
       <c r="R16" s="21"/>
       <c r="S16" s="22"/>
     </row>
-    <row r="17" spans="1:19" ht="32.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>92</v>
+        <v>138</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K17" s="2">
         <v>2</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="14" t="s">
-        <v>50</v>
+      <c r="L17" s="16">
+        <v>0</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>170</v>
+        <v>42</v>
+      </c>
+      <c r="Q17" s="49" t="s">
+        <v>179</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="S17" s="22"/>
     </row>
-    <row r="18" spans="1:19" ht="32.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="29"/>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
-      <c r="F18" s="20" t="s">
-        <v>93</v>
+      <c r="F18" s="14" t="s">
+        <v>183</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="14" t="s">
-        <v>50</v>
+      <c r="L18" s="16">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
-      <c r="Q18" s="19" t="s">
-        <v>170</v>
+      <c r="Q18" s="49" t="s">
+        <v>179</v>
       </c>
       <c r="R18" s="21" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="S18" s="22"/>
     </row>
-    <row r="19" spans="1:19" ht="32.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="29"/>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="20" t="s">
-        <v>150</v>
+      <c r="F19" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K19" s="2">
         <v>0.5</v>
       </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="14" t="s">
-        <v>50</v>
+      <c r="L19" s="16">
+        <v>0</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
-      <c r="Q19" s="19" t="s">
-        <v>170</v>
+      <c r="Q19" s="49" t="s">
+        <v>178</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="S19" s="22"/>
     </row>
     <row r="20" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="24" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -2570,30 +2548,34 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="14" t="s">
-        <v>50</v>
+        <v>68</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="22" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
     </row>
     <row r="21" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -2601,30 +2583,42 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="14" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="K21" s="16">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
       <c r="S21" s="22" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
+      <c r="K22" s="2">
+        <f>SUM(K5:K21)</f>
+        <v>22.616</v>
+      </c>
+      <c r="L22" s="2">
+        <f>SUM(L2:L21)</f>
+        <v>1340</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2646,10 +2640,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2668,51 +2662,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="22" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -2722,14 +2716,14 @@
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F5" s="18"/>
     </row>
@@ -2737,11 +2731,11 @@
       <c r="A6" s="27"/>
       <c r="B6" s="29"/>
       <c r="C6" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F6" s="18"/>
     </row>
@@ -2749,7 +2743,7 @@
       <c r="A7" s="27"/>
       <c r="B7" s="29"/>
       <c r="C7" s="28" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -2799,7 +2793,7 @@
       <c r="A13" s="27"/>
       <c r="B13" s="29"/>
       <c r="C13" s="6" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2809,23 +2803,23 @@
       <c r="A14" s="27"/>
       <c r="B14" s="29"/>
       <c r="C14" s="35" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="29"/>
       <c r="C15" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -2835,13 +2829,13 @@
       <c r="A16" s="27"/>
       <c r="B16" s="29"/>
       <c r="C16" s="28" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F16" s="18"/>
     </row>
@@ -2850,10 +2844,10 @@
       <c r="B17" s="29"/>
       <c r="C17" s="30"/>
       <c r="D17" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F17" s="18"/>
     </row>
@@ -2862,32 +2856,32 @@
       <c r="B18" s="29"/>
       <c r="C18" s="30"/>
       <c r="D18" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="B19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
-      <c r="B20" s="2" t="s">
-        <v>120</v>
+      <c r="B20" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2895,11 +2889,9 @@
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
-      <c r="B21" s="24" t="s">
-        <v>110</v>
-      </c>
+      <c r="B21" s="32"/>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -2907,41 +2899,41 @@
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
-      <c r="B22" s="32"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="B23" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
-      <c r="B24" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="2"/>
+      <c r="B24" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
-      <c r="B25" s="24" t="s">
-        <v>112</v>
-      </c>
+      <c r="B25" s="32"/>
       <c r="C25" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2951,7 +2943,7 @@
       <c r="A26" s="27"/>
       <c r="B26" s="32"/>
       <c r="C26" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2959,80 +2951,80 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
-      <c r="B27" s="32"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="2" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="2" t="s">
-        <v>68</v>
+      <c r="B28" s="33" t="s">
+        <v>123</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
-      <c r="B29" s="33" t="s">
-        <v>136</v>
-      </c>
+      <c r="B29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="12" t="s">
-        <v>114</v>
+    <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>118</v>
-      </c>
+      <c r="A31" s="25"/>
       <c r="B31" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="22" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
-      <c r="B32" s="22" t="s">
-        <v>52</v>
+      <c r="B32" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="22" t="s">
-        <v>116</v>
-      </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
-      <c r="B33" s="24" t="s">
-        <v>109</v>
-      </c>
+      <c r="B33" s="32"/>
       <c r="C33" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -3041,21 +3033,21 @@
     <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="32"/>
-      <c r="C34" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="2"/>
+      <c r="C34" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="28" t="s">
-        <v>125</v>
-      </c>
+      <c r="C35" s="29"/>
       <c r="D35" s="22" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -3063,64 +3055,64 @@
     <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="32"/>
-      <c r="C36" s="29"/>
+      <c r="C36" s="37" t="s">
+        <v>113</v>
+      </c>
       <c r="D36" s="22" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="37" t="s">
-        <v>126</v>
-      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="B38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
-      <c r="B39" s="2" t="s">
-        <v>111</v>
+      <c r="B39" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
-      <c r="B40" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="2"/>
+      <c r="B40" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
-      <c r="B41" s="24" t="s">
-        <v>113</v>
-      </c>
+      <c r="B41" s="25"/>
       <c r="C41" s="2" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -3128,9 +3120,9 @@
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -3138,56 +3130,118 @@
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="B43" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-    </row>
-    <row r="58" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
+    <row r="44" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="57" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A31:A44"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="A2:A30"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="A2:A29"/>
     <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="F7:F12"/>
     <mergeCell ref="D7:D12"/>
-    <mergeCell ref="B5:B19"/>
+    <mergeCell ref="B5:B18"/>
     <mergeCell ref="E7:E12"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B24:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="35.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="37.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="34.625" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="186">
   <si>
     <t>Catalog</t>
   </si>
@@ -296,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Introduction of Data Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,10 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. reboot test (Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Get Started</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,10 +492,6 @@
   </si>
   <si>
     <t>Appendix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>config-viewer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -830,14 +818,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Update to 1.0.96 - Activation Name (DeviceOn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Update to 1.0.97 - Activation Name (DeviceOn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.0.97 image to private registry/Test new java opts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -854,6 +834,37 @@
   </si>
   <si>
     <t>TODO(adveiss.azurecr.io/es-rmm-worker:1.0.97)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://tracker.ceph.com/projects/ceph/wiki/Benchmark_Ceph_Cluster_Performance
+https://www.sebastien-han.fr/blog/2012/08/26/ceph-benchmarks/
+https://github.com/Mirantis/disk_perf_test_tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 8883 Port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. reboot test (Terry)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Update to 1.0.97 - Activation Name (EdgeSense)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Update to 1.0.96 - Activation Name (EdgeSense)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,7 +872,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -915,6 +926,13 @@
       <strike/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1104,9 +1122,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1237,13 +1255,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1253,6 +1271,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1585,7 +1609,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1599,7 +1623,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E2" s="16"/>
     </row>
@@ -1616,15 +1640,15 @@
     </row>
     <row r="4" spans="1:5" ht="340.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="39" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +1663,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1697,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -1682,13 +1706,13 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>66</v>
@@ -1718,7 +1742,7 @@
         <v>40</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1726,21 +1750,21 @@
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
@@ -1771,13 +1795,13 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
@@ -1793,7 +1817,7 @@
       <c r="P3" s="16"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="S3" s="22"/>
     </row>
@@ -1808,7 +1832,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="20" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -1823,7 +1847,7 @@
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -1839,7 +1863,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>42</v>
@@ -1862,10 +1886,10 @@
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="2" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -1907,13 +1931,13 @@
         <v>28</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>42</v>
@@ -1952,13 +1976,13 @@
         <v>29</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>42</v>
@@ -1999,13 +2023,13 @@
         <v>23</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>42</v>
@@ -2038,7 +2062,7 @@
         <v>42</v>
       </c>
       <c r="Q9" s="48" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="22"/>
@@ -2052,13 +2076,13 @@
         <v>37</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>42</v>
@@ -2091,11 +2115,11 @@
         <v>42</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="R10" s="21"/>
       <c r="S10" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2104,16 +2128,16 @@
         <v>25</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>42</v>
@@ -2141,7 +2165,9 @@
       </c>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="22"/>
+      <c r="Q11" s="51" t="s">
+        <v>181</v>
+      </c>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
     </row>
@@ -2149,16 +2175,16 @@
       <c r="A12" s="27"/>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>42</v>
@@ -2197,13 +2223,13 @@
         <v>24</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>42</v>
@@ -2236,10 +2262,10 @@
         <v>42</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S13" s="22"/>
     </row>
@@ -2252,13 +2278,13 @@
         <v>47</v>
       </c>
       <c r="D14" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>88</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>89</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>42</v>
@@ -2291,11 +2317,11 @@
         <v>42</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="R14" s="22"/>
       <c r="S14" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2307,13 +2333,13 @@
         <v>26</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>42</v>
@@ -2352,13 +2378,13 @@
         <v>33</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>42</v>
@@ -2399,13 +2425,13 @@
         <v>45</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>42</v>
@@ -2438,10 +2464,10 @@
         <v>42</v>
       </c>
       <c r="Q17" s="49" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="S17" s="22"/>
     </row>
@@ -2454,7 +2480,7 @@
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>42</v>
@@ -2481,10 +2507,10 @@
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="49" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="R18" s="21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="S18" s="22"/>
     </row>
@@ -2497,7 +2523,7 @@
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
       <c r="F19" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>42</v>
@@ -2524,23 +2550,23 @@
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="49" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="S19" s="22"/>
     </row>
     <row r="20" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -2563,7 +2589,7 @@
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="22" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
@@ -2572,10 +2598,10 @@
       <c r="A21" s="43"/>
       <c r="B21" s="47"/>
       <c r="C21" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -2583,7 +2609,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K21" s="16">
         <v>0</v>
@@ -2595,18 +2621,18 @@
         <v>42</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
       <c r="S21" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2642,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2679,7 +2705,7 @@
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>52</v>
@@ -2699,14 +2725,14 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -2716,14 +2742,14 @@
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F5" s="18"/>
     </row>
@@ -2731,7 +2757,7 @@
       <c r="A6" s="27"/>
       <c r="B6" s="29"/>
       <c r="C6" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
@@ -2743,7 +2769,7 @@
       <c r="A7" s="27"/>
       <c r="B7" s="29"/>
       <c r="C7" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -2793,7 +2819,7 @@
       <c r="A13" s="27"/>
       <c r="B13" s="29"/>
       <c r="C13" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2812,14 +2838,14 @@
         <v>58</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="29"/>
       <c r="C15" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -2829,7 +2855,7 @@
       <c r="A16" s="27"/>
       <c r="B16" s="29"/>
       <c r="C16" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>55</v>
@@ -2866,10 +2892,10 @@
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -2878,7 +2904,7 @@
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>62</v>
@@ -2910,7 +2936,7 @@
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2920,10 +2946,10 @@
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2933,7 +2959,7 @@
       <c r="A25" s="27"/>
       <c r="B25" s="32"/>
       <c r="C25" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2943,7 +2969,7 @@
       <c r="A26" s="27"/>
       <c r="B26" s="32"/>
       <c r="C26" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2962,18 +2988,18 @@
     <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2982,7 +3008,7 @@
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>52</v>
@@ -3000,21 +3026,21 @@
         <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -3024,7 +3050,7 @@
       <c r="A33" s="25"/>
       <c r="B33" s="32"/>
       <c r="C33" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -3034,7 +3060,7 @@
       <c r="A34" s="25"/>
       <c r="B34" s="32"/>
       <c r="C34" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>57</v>
@@ -3056,7 +3082,7 @@
       <c r="A36" s="25"/>
       <c r="B36" s="32"/>
       <c r="C36" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>57</v>
@@ -3069,17 +3095,17 @@
       <c r="B37" s="26"/>
       <c r="C37" s="38"/>
       <c r="D37" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3089,7 +3115,7 @@
     <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3099,7 +3125,7 @@
     <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>64</v>
@@ -3112,7 +3138,7 @@
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -3122,7 +3148,7 @@
       <c r="A42" s="25"/>
       <c r="B42" s="26"/>
       <c r="C42" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -3131,7 +3157,7 @@
     <row r="43" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3176,10 +3202,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3198,50 +3224,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>167</v>
+      </c>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>170</v>
+      <c r="C4" s="50" t="s">
+        <v>179</v>
       </c>
       <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C5" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://github.com/kubernetes/perf-tests"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="183">
   <si>
     <t>Catalog</t>
   </si>
@@ -312,10 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kubespay with Moby (Jim)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adveiss.azurecr.io/es-postgres:9.6.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -532,10 +528,6 @@
   </si>
   <si>
     <t>postgres-1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(adveiss.azurecr.io/es-ota-worker:1.0.40)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -674,10 +666,6 @@
   </si>
   <si>
     <t>Tools</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/kubernetes/perf-tests</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -725,23 +713,6 @@
     <t>1. RabbitMQ queue size/length (Alex)
 size : 28/7=4G=4294967269
 length=4294967269/1000=4294967</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">1. OTA Testing </t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -822,13 +793,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>config, config-dsadmin — /etc/config (root) — 600 —fill in IP
-basic_auth.csv — /etc/auth (root) — 600—add into kube-apiserver.yaml and add volumeMount
-ca.crt — /home/ubuntu/ca (root,ubuntu) — 644
-config — /home/ubuntu/config (root,ubuntu) — 644 —fill in IP—fill in IP and CA in .kube (ubuntu) — keep root .kube</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TODO(adveiss.azurecr.io/es-rmm-portal:1.0.97)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -848,10 +812,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 8883 Port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -865,6 +825,22 @@
   </si>
   <si>
     <t>1. Update to 1.0.96 - Activation Name (EdgeSense)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(adveiss.azurecr.io/es-ota-worker:1.0.41)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/kubernetes/perf-tests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config, config-dsadmin — /etc/config (root) — 600 — fill in IP
+basic_auth.csv — /etc/auth (root) — 600 — add into kube-apiserver.yaml and add volumeMount
+ca.pem — /home/ubuntu/ca (root,ubuntu) — 644 /// sudo chattr -V +ia ca.pem
+config — /home/ubuntu/config (root,ubuntu) — 644 — fill in IP /// sudo chattr -V +ia config
+config - /home/ubuntu/.kube (root,ubuntu) — 600  — fill in IP + ca /// sudo chattr -V +ia config</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,14 +891,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <strike/>
       <sz val="12"/>
       <color theme="1"/>
@@ -931,6 +899,8 @@
       <charset val="136"/>
     </font>
     <font>
+      <b/>
+      <strike/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微軟正黑體"/>
@@ -952,6 +922,14 @@
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1122,7 +1100,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1192,7 +1170,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1255,28 +1233,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1609,7 +1587,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1623,7 +1601,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E2" s="16"/>
     </row>
@@ -1640,15 +1618,15 @@
     </row>
     <row r="4" spans="1:5" ht="340.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="39" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1662,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="M4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1697,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -1712,7 +1690,7 @@
         <v>74</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>66</v>
@@ -1742,7 +1720,7 @@
         <v>40</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1750,21 +1728,21 @@
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
@@ -1798,10 +1776,10 @@
         <v>75</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
@@ -1817,7 +1795,7 @@
       <c r="P3" s="16"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S3" s="22"/>
     </row>
@@ -1832,7 +1810,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -1846,9 +1824,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
-      <c r="Q4" s="23" t="s">
-        <v>76</v>
-      </c>
+      <c r="Q4" s="23"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
@@ -1863,7 +1839,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>42</v>
@@ -1886,10 +1862,10 @@
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -1931,13 +1907,13 @@
         <v>28</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>42</v>
@@ -1976,13 +1952,13 @@
         <v>29</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>42</v>
@@ -2023,13 +1999,13 @@
         <v>23</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>42</v>
@@ -2062,7 +2038,7 @@
         <v>42</v>
       </c>
       <c r="Q9" s="48" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="22"/>
@@ -2076,13 +2052,13 @@
         <v>37</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>42</v>
@@ -2114,12 +2090,10 @@
       <c r="P10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="19" t="s">
-        <v>172</v>
-      </c>
+      <c r="Q10" s="19"/>
       <c r="R10" s="21"/>
       <c r="S10" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2128,16 +2102,16 @@
         <v>25</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>147</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>149</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>42</v>
@@ -2165,9 +2139,7 @@
       </c>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="51" t="s">
-        <v>181</v>
-      </c>
+      <c r="Q11" s="51"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
     </row>
@@ -2175,16 +2147,16 @@
       <c r="A12" s="27"/>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>148</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>42</v>
@@ -2223,13 +2195,13 @@
         <v>24</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>42</v>
@@ -2262,10 +2234,10 @@
         <v>42</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S13" s="22"/>
     </row>
@@ -2278,13 +2250,13 @@
         <v>47</v>
       </c>
       <c r="D14" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>87</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>88</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>42</v>
@@ -2317,11 +2289,11 @@
         <v>42</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="R14" s="22"/>
       <c r="S14" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2333,13 +2305,13 @@
         <v>26</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>42</v>
@@ -2378,13 +2350,13 @@
         <v>33</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>42</v>
@@ -2425,13 +2397,13 @@
         <v>45</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>177</v>
+        <v>133</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>42</v>
@@ -2464,10 +2436,10 @@
         <v>42</v>
       </c>
       <c r="Q17" s="49" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="S17" s="22"/>
     </row>
@@ -2479,8 +2451,8 @@
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
-      <c r="F18" s="14" t="s">
-        <v>178</v>
+      <c r="F18" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>42</v>
@@ -2507,10 +2479,10 @@
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="49" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="R18" s="21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="S18" s="22"/>
     </row>
@@ -2522,8 +2494,8 @@
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="14" t="s">
-        <v>132</v>
+      <c r="F19" s="20" t="s">
+        <v>180</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>42</v>
@@ -2550,23 +2522,23 @@
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="49" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="S19" s="22"/>
     </row>
     <row r="20" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>136</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>138</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -2589,7 +2561,7 @@
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="22" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
@@ -2598,10 +2570,10 @@
       <c r="A21" s="43"/>
       <c r="B21" s="47"/>
       <c r="C21" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -2609,7 +2581,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K21" s="16">
         <v>0</v>
@@ -2621,18 +2593,18 @@
         <v>42</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
       <c r="S21" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2705,7 +2677,7 @@
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>52</v>
@@ -2732,7 +2704,7 @@
     <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -2742,14 +2714,14 @@
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" s="18"/>
     </row>
@@ -2757,7 +2729,7 @@
       <c r="A6" s="27"/>
       <c r="B6" s="29"/>
       <c r="C6" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
@@ -2769,7 +2741,7 @@
       <c r="A7" s="27"/>
       <c r="B7" s="29"/>
       <c r="C7" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -2819,7 +2791,7 @@
       <c r="A13" s="27"/>
       <c r="B13" s="29"/>
       <c r="C13" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2838,14 +2810,14 @@
         <v>58</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="29"/>
       <c r="C15" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -2855,7 +2827,7 @@
       <c r="A16" s="27"/>
       <c r="B16" s="29"/>
       <c r="C16" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>55</v>
@@ -2892,10 +2864,10 @@
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -2904,7 +2876,7 @@
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>62</v>
@@ -2936,7 +2908,7 @@
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2946,10 +2918,10 @@
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2959,7 +2931,7 @@
       <c r="A25" s="27"/>
       <c r="B25" s="32"/>
       <c r="C25" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2969,7 +2941,7 @@
       <c r="A26" s="27"/>
       <c r="B26" s="32"/>
       <c r="C26" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2988,18 +2960,18 @@
     <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3008,7 +2980,7 @@
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>52</v>
@@ -3026,21 +2998,21 @@
         <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -3050,7 +3022,7 @@
       <c r="A33" s="25"/>
       <c r="B33" s="32"/>
       <c r="C33" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -3060,7 +3032,7 @@
       <c r="A34" s="25"/>
       <c r="B34" s="32"/>
       <c r="C34" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>57</v>
@@ -3082,7 +3054,7 @@
       <c r="A36" s="25"/>
       <c r="B36" s="32"/>
       <c r="C36" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>57</v>
@@ -3095,17 +3067,17 @@
       <c r="B37" s="26"/>
       <c r="C37" s="38"/>
       <c r="D37" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3115,7 +3087,7 @@
     <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3125,7 +3097,7 @@
     <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="B40" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>64</v>
@@ -3138,7 +3110,7 @@
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -3148,7 +3120,7 @@
       <c r="A42" s="25"/>
       <c r="B42" s="26"/>
       <c r="C42" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -3157,7 +3129,7 @@
     <row r="43" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3205,7 +3177,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3224,43 +3196,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D4" s="16"/>
     </row>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="465" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="465" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
     <sheet name="Software" sheetId="2" r:id="rId2"/>
-    <sheet name="UserManual" sheetId="3" r:id="rId3"/>
+    <sheet name="Manual" sheetId="3" r:id="rId3"/>
     <sheet name="Testing" sheetId="4" r:id="rId4"/>
+    <sheet name="Training" sheetId="5" r:id="rId5"/>
+    <sheet name="工作表3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="193">
   <si>
     <t>Catalog</t>
   </si>
@@ -841,6 +843,46 @@
 ca.pem — /home/ubuntu/ca (root,ubuntu) — 644 /// sudo chattr -V +ia ca.pem
 config — /home/ubuntu/config (root,ubuntu) — 644 — fill in IP /// sudo chattr -V +ia config
 config - /home/ubuntu/.kube (root,ubuntu) — 600  — fill in IP + ca /// sudo chattr -V +ia config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. helm packages in /root/helm/packages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebooting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technical Manual(Jim/Terry)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Concept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deployment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubernetes/Ceph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansible/Helm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reboot/ChangeIP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -976,7 +1018,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1097,12 +1139,23 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1152,9 +1205,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1167,6 +1217,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1256,6 +1309,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1562,7 +1618,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1640,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView topLeftCell="K4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1735,7 +1791,7 @@
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>126</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -1758,8 +1814,10 @@
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="21"/>
+      <c r="Q2" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="R2" s="20"/>
       <c r="S2" s="22"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1772,7 +1830,7 @@
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>75</v>
       </c>
       <c r="G3" s="14" t="s">
@@ -1809,7 +1867,7 @@
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>176</v>
       </c>
       <c r="G4" s="16"/>
@@ -1838,7 +1896,7 @@
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>121</v>
       </c>
       <c r="G5" s="15" t="s">
@@ -1906,10 +1964,10 @@
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>129</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1951,10 +2009,10 @@
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>130</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1998,10 +2056,10 @@
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>131</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -2040,7 +2098,7 @@
       <c r="Q9" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="R9" s="21"/>
+      <c r="R9" s="20"/>
       <c r="S9" s="22"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2051,7 +2109,7 @@
       <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -2072,7 +2130,7 @@
       <c r="J10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <v>0.25</v>
       </c>
       <c r="L10" s="2">
@@ -2090,8 +2148,8 @@
       <c r="P10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="21"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="20"/>
       <c r="S10" s="22" t="s">
         <v>90</v>
       </c>
@@ -2101,16 +2159,16 @@
       <c r="B11" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>147</v>
       </c>
       <c r="G11" s="15" t="s">
@@ -2125,7 +2183,7 @@
       <c r="J11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="19">
         <v>0.1</v>
       </c>
       <c r="L11" s="16">
@@ -2146,16 +2204,16 @@
     <row r="12" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>146</v>
       </c>
       <c r="G12" s="15" t="s">
@@ -2170,7 +2228,7 @@
       <c r="J12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="19">
         <v>0.1</v>
       </c>
       <c r="L12" s="16">
@@ -2191,16 +2249,16 @@
     <row r="13" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>165</v>
       </c>
       <c r="G13" s="15" t="s">
@@ -2236,7 +2294,7 @@
       <c r="Q13" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="R13" s="21" t="s">
+      <c r="R13" s="20" t="s">
         <v>91</v>
       </c>
       <c r="S13" s="22"/>
@@ -2246,16 +2304,16 @@
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>87</v>
       </c>
       <c r="G14" s="15" t="s">
@@ -2288,7 +2346,7 @@
       <c r="P14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="19" t="s">
+      <c r="Q14" s="18" t="s">
         <v>170</v>
       </c>
       <c r="R14" s="22"/>
@@ -2304,7 +2362,7 @@
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>128</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2337,8 +2395,8 @@
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="21"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="20"/>
       <c r="S15" s="22"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2349,7 +2407,7 @@
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>127</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -2384,8 +2442,8 @@
       </c>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="21"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="20"/>
       <c r="S16" s="22"/>
     </row>
     <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
@@ -2402,7 +2460,7 @@
       <c r="E17" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="19" t="s">
         <v>172</v>
       </c>
       <c r="G17" s="15" t="s">
@@ -2438,7 +2496,7 @@
       <c r="Q17" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="R17" s="21" t="s">
+      <c r="R17" s="20" t="s">
         <v>171</v>
       </c>
       <c r="S17" s="22"/>
@@ -2451,7 +2509,7 @@
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>173</v>
       </c>
       <c r="G18" s="15" t="s">
@@ -2481,7 +2539,7 @@
       <c r="Q18" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="R18" s="21" t="s">
+      <c r="R18" s="20" t="s">
         <v>171</v>
       </c>
       <c r="S18" s="22"/>
@@ -2494,7 +2552,7 @@
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>180</v>
       </c>
       <c r="G19" s="15" t="s">
@@ -2524,7 +2582,7 @@
       <c r="Q19" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="R19" s="21" t="s">
+      <c r="R19" s="20" t="s">
         <v>171</v>
       </c>
       <c r="S19" s="22"/>
@@ -2537,7 +2595,7 @@
       <c r="C20" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>136</v>
       </c>
       <c r="E20" s="16"/>
@@ -2572,7 +2630,7 @@
       <c r="C21" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>138</v>
       </c>
       <c r="E21" s="16"/>
@@ -2638,10 +2696,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2687,7 +2745,7 @@
       <c r="E2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -2699,7 +2757,7 @@
       <c r="E3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
@@ -2723,7 +2781,7 @@
       <c r="E5" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
@@ -2735,7 +2793,7 @@
       <c r="E6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
@@ -2795,7 +2853,7 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="18"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
@@ -2821,7 +2879,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="18"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
@@ -2835,7 +2893,7 @@
       <c r="E16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
@@ -2847,7 +2905,7 @@
       <c r="E17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
@@ -2859,7 +2917,7 @@
       <c r="E18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
@@ -2871,7 +2929,7 @@
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="18"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
@@ -2883,7 +2941,7 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="18"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
@@ -2893,7 +2951,7 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
@@ -3136,21 +3194,54 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+    <row r="44" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="B45" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="57" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+    </row>
+    <row r="60" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A44:A46"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="B40:B42"/>
@@ -3177,7 +3268,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3248,4 +3339,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="35.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="37.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="34.625" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C5" s="44"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="465" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="190">
   <si>
     <t>Catalog</t>
   </si>
@@ -372,11 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1. AlertManager (Evelyn)
-2. Mongo Exporter (Evelyn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Get Started</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -494,10 +489,6 @@
   </si>
   <si>
     <t>13.2.4  mimic (stable)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(Jim)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -791,10 +782,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.0.97 image to private registry/Test new java opts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TODO(adveiss.azurecr.io/es-rmm-portal:1.0.97)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -815,18 +802,6 @@
   </si>
   <si>
     <t>3.0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. reboot test (Terry)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Update to 1.0.97 - Activation Name (EdgeSense)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Update to 1.0.96 - Activation Name (EdgeSense)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -885,12 +860,40 @@
     <t>Reboot/ChangeIP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. reboot test (Terry)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2. one replica for each objects (.7)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Update to 1.0.98 - Activation Name (EdgeSense)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. AlertManager (Evelyn)
+2. Mongo Exporter (Evelyn)
+3. DB Size Metric - Alert (Evelyn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -928,6 +931,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1153,9 +1164,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1196,9 +1207,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1223,7 +1231,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1286,28 +1294,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1643,7 +1651,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1657,9 +1665,9 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="16"/>
+        <v>164</v>
+      </c>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1668,21 +1676,21 @@
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="340.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="39" t="s">
-        <v>167</v>
+        <v>118</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="38" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1696,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView topLeftCell="K4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1780,206 +1788,206 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="19" t="s">
-        <v>126</v>
-      </c>
       <c r="G2" s="14" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="24">
+        <v>42</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="23">
         <v>1</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="15">
         <v>0</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="22"/>
+      <c r="M2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="18" t="s">
         <v>75</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="16">
+        <v>42</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="15">
         <v>0</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="S3" s="22"/>
+      <c r="M3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="16">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="15">
         <v>0</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="23"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="22"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="2">
         <v>3</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <v>0</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="2" t="s">
-        <v>177</v>
+      <c r="M5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="21" t="s">
+        <v>187</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15">
         <v>0</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <v>0</v>
       </c>
-      <c r="M6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
+      <c r="M6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>129</v>
+      <c r="D7" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>42</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1991,40 +1999,40 @@
       <c r="L7" s="2">
         <v>1024</v>
       </c>
-      <c r="M7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
+      <c r="M7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>130</v>
+      <c r="D8" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="15" t="s">
+      <c r="G8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>42</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -2036,42 +2044,42 @@
       <c r="L8" s="2">
         <v>8</v>
       </c>
-      <c r="M8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
+      <c r="M8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>131</v>
+      <c r="D9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="15" t="s">
+      <c r="G9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -2083,191 +2091,191 @@
       <c r="L9" s="2">
         <v>32</v>
       </c>
-      <c r="M9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="R9" s="20"/>
-      <c r="S9" s="22"/>
+      <c r="M9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="R9" s="19"/>
+      <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>42</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="18">
         <v>0.25</v>
       </c>
       <c r="L10" s="2">
         <v>10</v>
       </c>
-      <c r="M10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="22" t="s">
+      <c r="M10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="21" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="E11" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="15" t="s">
+      <c r="G11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="18">
         <v>0.1</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>0</v>
       </c>
-      <c r="M11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
+      <c r="M11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="15" t="s">
+      <c r="G12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="18">
         <v>0.1</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <v>0</v>
       </c>
-      <c r="M12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
+      <c r="M12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="19" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="15" t="s">
+      <c r="F13" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -2279,50 +2287,50 @@
       <c r="L13" s="2">
         <v>256</v>
       </c>
-      <c r="M13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="15" t="s">
+      <c r="M13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="14" t="s">
         <v>42</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="R13" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="S13" s="22"/>
+        <v>167</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="15" t="s">
+      <c r="G14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>42</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -2334,36 +2342,36 @@
       <c r="L14" s="2">
         <v>10</v>
       </c>
-      <c r="M14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22" t="s">
+      <c r="M14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>128</v>
+      <c r="D15" s="18" t="s">
+        <v>126</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
@@ -2371,13 +2379,13 @@
       <c r="F15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="15" t="s">
+      <c r="G15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>42</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -2386,29 +2394,29 @@
       <c r="K15" s="2">
         <v>1</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="15">
         <v>0</v>
       </c>
-      <c r="M15" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="22"/>
+      <c r="M15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>127</v>
+      <c r="D16" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>34</v>
@@ -2416,13 +2424,13 @@
       <c r="F16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="15" t="s">
+      <c r="G16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -2431,45 +2439,45 @@
       <c r="K16" s="2">
         <v>0.5</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="14" t="s">
         <v>42</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="22"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="21"/>
     </row>
     <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="15" t="s">
+      <c r="D17" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>42</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -2478,47 +2486,45 @@
       <c r="K17" s="2">
         <v>2</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="15">
         <v>0</v>
       </c>
-      <c r="M17" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="P17" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q17" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="R17" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="S17" s="22"/>
+      <c r="M17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="R17" s="19"/>
+      <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="15" t="s">
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="14" t="s">
         <v>42</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -2527,41 +2533,39 @@
       <c r="K18" s="2">
         <v>1</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="15">
         <v>0</v>
       </c>
-      <c r="M18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="R18" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="S18" s="22"/>
+      <c r="M18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="R18" s="19"/>
+      <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="15" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="14" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -2570,98 +2574,96 @@
       <c r="K19" s="2">
         <v>0.5</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="15">
         <v>0</v>
       </c>
-      <c r="M19" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="R19" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="S19" s="22"/>
+      <c r="M19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="R19" s="19"/>
+      <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <v>0</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="15">
         <v>0</v>
       </c>
-      <c r="M20" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
+      <c r="M20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K21" s="16">
+      <c r="K21" s="15">
         <v>0</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="15">
         <v>0</v>
       </c>
-      <c r="M21" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="15" t="s">
+      <c r="M21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="O21" s="15" t="s">
+      <c r="O21" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="P21" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22" t="s">
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2699,7 +2701,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2734,8 +2736,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>132</v>
+      <c r="A2" s="26" t="s">
+        <v>130</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>52</v>
@@ -2745,10 +2747,10 @@
       <c r="E2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="6" t="s">
         <v>49</v>
       </c>
@@ -2757,135 +2759,135 @@
       <c r="E3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28" t="s">
-        <v>92</v>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="17"/>
+        <v>115</v>
+      </c>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="17"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="35" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="36" t="s">
-        <v>101</v>
+      <c r="F14" s="35" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="17"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="28" t="s">
-        <v>151</v>
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="27" t="s">
+        <v>149</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>55</v>
@@ -2893,69 +2895,69 @@
       <c r="E16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="17"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="24" t="s">
-        <v>94</v>
+      <c r="A20" s="26"/>
+      <c r="B20" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="17"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="17"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="2" t="s">
         <v>63</v>
       </c>
@@ -2964,9 +2966,9 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="33" t="s">
-        <v>115</v>
+      <c r="A23" s="26"/>
+      <c r="B23" s="32" t="s">
+        <v>114</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2974,40 +2976,40 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="24" t="s">
-        <v>96</v>
+      <c r="A24" s="26"/>
+      <c r="B24" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="2" t="s">
         <v>64</v>
       </c>
@@ -3016,20 +3018,20 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="33" t="s">
-        <v>120</v>
+      <c r="A28" s="26"/>
+      <c r="B28" s="32" t="s">
+        <v>119</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3037,105 +3039,105 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>60</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="22" t="s">
-        <v>100</v>
-      </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="24" t="s">
-        <v>93</v>
+      <c r="A32" s="24"/>
+      <c r="B32" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="22" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="22" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="22" t="s">
+      <c r="A36" s="24"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="22" t="s">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3143,9 +3145,9 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="33" t="s">
-        <v>115</v>
+      <c r="A39" s="24"/>
+      <c r="B39" s="32" t="s">
+        <v>114</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3153,9 +3155,9 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="24" t="s">
-        <v>97</v>
+      <c r="A40" s="24"/>
+      <c r="B40" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>64</v>
@@ -3165,29 +3167,29 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="33" t="s">
-        <v>120</v>
+      <c r="A43" s="24"/>
+      <c r="B43" s="32" t="s">
+        <v>119</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3195,11 +3197,11 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>123</v>
+      <c r="A44" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>121</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3207,9 +3209,9 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="52" t="s">
-        <v>184</v>
+      <c r="A45" s="28"/>
+      <c r="B45" s="51" t="s">
+        <v>178</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3217,9 +3219,9 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="52" t="s">
-        <v>185</v>
+      <c r="A46" s="28"/>
+      <c r="B46" s="51" t="s">
+        <v>179</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3227,17 +3229,17 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="60" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
+      <c r="A60" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3268,7 +3270,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:XFD1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3280,55 +3282,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>118</v>
+      <c r="C1" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="16"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="16"/>
+        <v>158</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="16"/>
+        <v>160</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C5" s="44"/>
+      <c r="C5" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3345,7 +3347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3358,51 +3360,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>118</v>
+      <c r="C1" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="16"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="16"/>
+        <v>185</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="16"/>
+        <v>186</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C5" s="44"/>
+      <c r="C5" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Manual" sheetId="3" r:id="rId3"/>
     <sheet name="Testing" sheetId="4" r:id="rId4"/>
     <sheet name="Training" sheetId="5" r:id="rId5"/>
-    <sheet name="工作表3" sheetId="6" r:id="rId6"/>
+    <sheet name="Others" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="201">
   <si>
     <t>Catalog</t>
   </si>
@@ -589,10 +589,6 @@
   </si>
   <si>
     <t>adveiss.azurecr.io/rabbitmq-exporter:v0.29.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Change IP test (Terry)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -700,12 +696,6 @@
       </rPr>
       <t>6083~6088 - kvm</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. RabbitMQ queue size/length (Alex)
-size : 28/7=4G=4294967269
-length=4294967269/1000=4294967</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -805,6 +795,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. reboot test (Terry)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TODO(adveiss.azurecr.io/es-ota-worker:1.0.41)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -821,10 +815,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. helm packages in /root/helm/packages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ChangeIP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -861,31 +851,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. reboot test (Terry)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>2. one replica for each objects (.7)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. Update to 1.0.98 - Activation Name (EdgeSense)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spec for each customers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Provided Form</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>where?? tool??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postgres/@dvant1cH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wisepaas/wisepaas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. RabbitMQ queue size/length (Alex)
+size : 28/7=4G=4294967269
+length=4294967269/1000=4294967
+192.168.11.6:15672</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/@dvant1cH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecgwe/@dvant1cH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.IPChange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 1. AlertManager (Evelyn)
 2. Mongo Exporter (Evelyn)
-3. DB Size Metric - Alert (Evelyn)</t>
+3. DB Size Metric - Alert (Evelyn)
+4. Reboot Script (Evelyn)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,7 +925,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -931,14 +963,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -985,7 +1009,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1019,6 +1043,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,9 +1194,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1231,7 +1261,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1267,10 +1297,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1294,32 +1327,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1665,7 +1704,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="15"/>
     </row>
@@ -1689,8 +1728,8 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="38" t="s">
-        <v>165</v>
+      <c r="E4" s="39" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1704,7 +1743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
@@ -1822,9 +1861,7 @@
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="16" t="s">
-        <v>177</v>
-      </c>
+      <c r="Q2" s="16"/>
       <c r="R2" s="19"/>
       <c r="S2" s="21"/>
     </row>
@@ -1861,7 +1898,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S3" s="21"/>
     </row>
@@ -1876,7 +1913,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -1928,10 +1965,10 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>146</v>
+        <v>172</v>
+      </c>
+      <c r="R5" s="46" t="s">
+        <v>198</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -2007,13 +2044,17 @@
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
+      <c r="Q7" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>195</v>
+      </c>
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
-      <c r="B8" s="46"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -2052,8 +2093,12 @@
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
+      <c r="Q8" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="R8" s="44" t="s">
+        <v>194</v>
+      </c>
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2103,10 +2148,12 @@
       <c r="P9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="R9" s="19"/>
+      <c r="Q9" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>197</v>
+      </c>
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2205,7 +2252,7 @@
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
-      <c r="Q11" s="50"/>
+      <c r="Q11" s="51"/>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
     </row>
@@ -2267,7 +2314,7 @@
         <v>80</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>42</v>
@@ -2300,10 +2347,10 @@
         <v>42</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="R13" s="19" t="s">
-        <v>189</v>
+        <v>165</v>
+      </c>
+      <c r="R13" s="34" t="s">
+        <v>200</v>
       </c>
       <c r="S13" s="21"/>
     </row>
@@ -2355,7 +2402,7 @@
         <v>42</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R14" s="21"/>
       <c r="S14" s="21" t="s">
@@ -2462,14 +2509,14 @@
       <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="40" t="s">
         <v>131</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>42</v>
@@ -2501,8 +2548,8 @@
       <c r="P17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Q17" s="48" t="s">
-        <v>188</v>
+      <c r="Q17" s="49" t="s">
+        <v>185</v>
       </c>
       <c r="R17" s="19"/>
       <c r="S17" s="21"/>
@@ -2513,10 +2560,10 @@
       <c r="C18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>42</v>
@@ -2542,8 +2589,8 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="48" t="s">
-        <v>188</v>
+      <c r="Q18" s="49" t="s">
+        <v>185</v>
       </c>
       <c r="R18" s="19"/>
       <c r="S18" s="21"/>
@@ -2554,10 +2601,10 @@
       <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>42</v>
@@ -2583,8 +2630,8 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
-      <c r="Q19" s="48" t="s">
-        <v>188</v>
+      <c r="Q19" s="49" t="s">
+        <v>185</v>
       </c>
       <c r="R19" s="19"/>
       <c r="S19" s="21"/>
@@ -2621,14 +2668,16 @@
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="R20" s="21"/>
+        <v>175</v>
+      </c>
+      <c r="R20" s="34" t="s">
+        <v>199</v>
+      </c>
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="2" t="s">
         <v>135</v>
       </c>
@@ -2691,8 +2740,14 @@
     <mergeCell ref="B11:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="Q8" r:id="rId1"/>
+    <hyperlink ref="R8" r:id="rId2"/>
+    <hyperlink ref="R9" r:id="rId3"/>
+    <hyperlink ref="R5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2764,7 +2819,7 @@
     <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -2777,7 +2832,7 @@
         <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
@@ -2789,7 +2844,7 @@
       <c r="A6" s="26"/>
       <c r="B6" s="28"/>
       <c r="C6" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
@@ -2851,7 +2906,7 @@
       <c r="A13" s="26"/>
       <c r="B13" s="28"/>
       <c r="C13" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2860,16 +2915,16 @@
     <row r="14" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="28"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="36" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2887,7 +2942,7 @@
       <c r="A16" s="26"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>55</v>
@@ -2981,7 +3036,7 @@
         <v>95</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2991,7 +3046,7 @@
       <c r="A25" s="26"/>
       <c r="B25" s="31"/>
       <c r="C25" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -3001,7 +3056,7 @@
       <c r="A26" s="26"/>
       <c r="B26" s="31"/>
       <c r="C26" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -3009,7 +3064,7 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
-      <c r="B27" s="37"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="2" t="s">
         <v>64</v>
       </c>
@@ -3024,7 +3079,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -3113,7 +3168,7 @@
     <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="31"/>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="37" t="s">
         <v>109</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -3125,7 +3180,7 @@
     <row r="37" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="25"/>
-      <c r="C37" s="37"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="21" t="s">
         <v>110</v>
       </c>
@@ -3198,9 +3253,9 @@
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B44" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="52" t="s">
         <v>121</v>
       </c>
       <c r="C44" s="2"/>
@@ -3210,8 +3265,8 @@
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
-      <c r="B45" s="51" t="s">
-        <v>178</v>
+      <c r="B45" s="52" t="s">
+        <v>176</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3220,8 +3275,8 @@
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
-      <c r="B46" s="51" t="s">
-        <v>179</v>
+      <c r="B46" s="52" t="s">
+        <v>177</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3239,7 +3294,7 @@
       <c r="F47" s="16"/>
     </row>
     <row r="60" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="43"/>
+      <c r="A60" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3282,55 +3337,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="45" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>174</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>171</v>
+        <v>159</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>169</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C5" s="43"/>
+      <c r="C5" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3348,7 +3403,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3360,51 +3415,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="45" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="45"/>
+        <v>183</v>
+      </c>
+      <c r="C3" s="46"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="49"/>
+        <v>184</v>
+      </c>
+      <c r="C4" s="50"/>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C5" s="43"/>
+      <c r="C5" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3415,14 +3470,92 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="35.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="37.125" style="11" customWidth="1"/>
+    <col min="4" max="5" width="34.625" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C6" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="203">
   <si>
     <t>Catalog</t>
   </si>
@@ -780,13 +780,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-https://tracker.ceph.com/projects/ceph/wiki/Benchmark_Ceph_Cluster_Performance
-https://www.sebastien-han.fr/blog/2012/08/26/ceph-benchmarks/
-https://github.com/Mirantis/disk_perf_test_tool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>config</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -918,6 +911,20 @@
 2. Mongo Exporter (Evelyn)
 3. DB Size Metric - Alert (Evelyn)
 4. Reboot Script (Evelyn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tracker.ceph.com/projects/ceph/wiki/Benchmark_Ceph_Cluster_Performance
+https://www.sebastien-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sebastien-han.fr/blog/2012/08/26/ceph-benchmarks/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://github.com/Mirantis/disk_perf_test_tool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1196,7 +1203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1265,21 +1272,87 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1288,76 +1361,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1728,7 +1738,7 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="27" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1743,7 +1753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
@@ -1827,7 +1837,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1849,7 +1859,7 @@
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="23">
+      <c r="K2" s="39">
         <v>1</v>
       </c>
       <c r="L2" s="15">
@@ -1866,7 +1876,7 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
@@ -1886,7 +1896,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="31"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="15">
         <v>0</v>
       </c>
@@ -1903,7 +1913,7 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
@@ -1913,13 +1923,13 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="25"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -1932,8 +1942,8 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="43" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1965,16 +1975,16 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="R5" s="46" t="s">
-        <v>198</v>
+        <v>171</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>197</v>
       </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
@@ -2002,8 +2012,8 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="39" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2045,16 +2055,16 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -2093,16 +2103,16 @@
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
-      <c r="Q8" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="R8" s="44" t="s">
-        <v>194</v>
+      <c r="Q8" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>193</v>
       </c>
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2148,16 +2158,16 @@
       <c r="P9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="48" t="s">
+      <c r="Q9" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="R9" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="R9" s="50" t="s">
-        <v>197</v>
-      </c>
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -2210,8 +2220,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="39" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -2252,13 +2262,13 @@
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
-      <c r="Q11" s="51"/>
+      <c r="Q11" s="34"/>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="18" t="s">
         <v>138</v>
       </c>
@@ -2302,8 +2312,8 @@
       <c r="S12" s="21"/>
     </row>
     <row r="13" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="18" t="s">
         <v>24</v>
       </c>
@@ -2349,13 +2359,13 @@
       <c r="Q13" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="R13" s="34" t="s">
-        <v>200</v>
+      <c r="R13" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
@@ -2410,7 +2420,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
@@ -2455,7 +2465,7 @@
       <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -2502,17 +2512,17 @@
       <c r="S16" s="21"/>
     </row>
     <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="36" t="s">
         <v>131</v>
       </c>
       <c r="F17" s="18" t="s">
@@ -2548,20 +2558,20 @@
       <c r="P17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Q17" s="49" t="s">
-        <v>185</v>
+      <c r="Q17" s="32" t="s">
+        <v>184</v>
       </c>
       <c r="R17" s="19"/>
       <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="18" t="s">
         <v>168</v>
       </c>
@@ -2589,22 +2599,22 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="49" t="s">
-        <v>185</v>
+      <c r="Q18" s="32" t="s">
+        <v>184</v>
       </c>
       <c r="R18" s="19"/>
       <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>42</v>
@@ -2630,15 +2640,15 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
-      <c r="Q19" s="49" t="s">
-        <v>185</v>
+      <c r="Q19" s="32" t="s">
+        <v>184</v>
       </c>
       <c r="R19" s="19"/>
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="39" t="s">
         <v>132</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2668,16 +2678,16 @@
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="R20" s="34" t="s">
-        <v>199</v>
+        <v>174</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>198</v>
       </c>
       <c r="S20" s="21"/>
     </row>
     <row r="21" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="2" t="s">
         <v>135</v>
       </c>
@@ -2729,15 +2739,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2791,7 +2801,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="45" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2805,7 +2815,7 @@
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="6" t="s">
         <v>49</v>
       </c>
@@ -2817,7 +2827,7 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="21" t="s">
         <v>150</v>
       </c>
@@ -2827,8 +2837,8 @@
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="43" t="s">
         <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2841,8 +2851,8 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="6" t="s">
         <v>154</v>
       </c>
@@ -2853,58 +2863,58 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="27" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="6" t="s">
         <v>147</v>
       </c>
@@ -2913,24 +2923,24 @@
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="35" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="26" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="6" t="s">
         <v>106</v>
       </c>
@@ -2939,9 +2949,9 @@
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="27" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="43" t="s">
         <v>148</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -2953,9 +2963,9 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="6" t="s">
         <v>57</v>
       </c>
@@ -2965,9 +2975,9 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="6" t="s">
         <v>56</v>
       </c>
@@ -2977,7 +2987,7 @@
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="2" t="s">
         <v>103</v>
       </c>
@@ -2989,8 +2999,8 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="39" t="s">
         <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -3001,8 +3011,8 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="2" t="s">
         <v>61</v>
       </c>
@@ -3011,8 +3021,8 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="2" t="s">
         <v>63</v>
       </c>
@@ -3021,8 +3031,8 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="45"/>
+      <c r="B23" s="23" t="s">
         <v>114</v>
       </c>
       <c r="C23" s="2"/>
@@ -3031,8 +3041,8 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="45"/>
+      <c r="B24" s="39" t="s">
         <v>95</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3043,8 +3053,8 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="2" t="s">
         <v>153</v>
       </c>
@@ -3053,8 +3063,8 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="31"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="2" t="s">
         <v>151</v>
       </c>
@@ -3063,8 +3073,8 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="2" t="s">
         <v>64</v>
       </c>
@@ -3073,18 +3083,18 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="32" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="23" t="s">
         <v>119</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="12" t="s">
         <v>97</v>
       </c>
@@ -3094,7 +3104,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="50" t="s">
         <v>101</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -3108,7 +3118,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="21" t="s">
         <v>49</v>
       </c>
@@ -3122,8 +3132,8 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="47"/>
+      <c r="B32" s="39" t="s">
         <v>92</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -3134,8 +3144,8 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="2" t="s">
         <v>107</v>
       </c>
@@ -3144,9 +3154,9 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="27" t="s">
+      <c r="A34" s="47"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="43" t="s">
         <v>108</v>
       </c>
       <c r="D34" s="21" t="s">
@@ -3156,9 +3166,9 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="28"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="21" t="s">
         <v>47</v>
       </c>
@@ -3166,9 +3176,9 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="37" t="s">
+      <c r="A36" s="47"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="48" t="s">
         <v>109</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -3178,9 +3188,9 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="38"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="21" t="s">
         <v>110</v>
       </c>
@@ -3190,7 +3200,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="2" t="s">
         <v>94</v>
       </c>
@@ -3200,8 +3210,8 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="32" t="s">
+      <c r="A39" s="47"/>
+      <c r="B39" s="23" t="s">
         <v>114</v>
       </c>
       <c r="C39" s="2"/>
@@ -3210,8 +3220,8 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="23" t="s">
+      <c r="A40" s="47"/>
+      <c r="B40" s="39" t="s">
         <v>96</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -3222,8 +3232,8 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="2" t="s">
         <v>113</v>
       </c>
@@ -3232,8 +3242,8 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="2" t="s">
         <v>112</v>
       </c>
@@ -3242,8 +3252,8 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="32" t="s">
+      <c r="A43" s="47"/>
+      <c r="B43" s="23" t="s">
         <v>119</v>
       </c>
       <c r="C43" s="2"/>
@@ -3252,10 +3262,10 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B44" s="52" t="s">
+      <c r="A44" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="35" t="s">
         <v>121</v>
       </c>
       <c r="C44" s="2"/>
@@ -3264,9 +3274,9 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="52" t="s">
-        <v>176</v>
+      <c r="A45" s="44"/>
+      <c r="B45" s="35" t="s">
+        <v>175</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3274,9 +3284,9 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="52" t="s">
-        <v>177</v>
+      <c r="A46" s="44"/>
+      <c r="B46" s="35" t="s">
+        <v>176</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3294,16 +3304,10 @@
       <c r="F47" s="16"/>
     </row>
     <row r="60" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
+      <c r="A60" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A30:A43"/>
-    <mergeCell ref="B32:B37"/>
     <mergeCell ref="A2:A29"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="C16:C18"/>
@@ -3313,6 +3317,12 @@
     <mergeCell ref="E7:E12"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A30:A43"/>
+    <mergeCell ref="B32:B37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3322,10 +3332,96 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="35.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="64.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="34.625" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="C5" s="55" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C6" s="28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="https://github.com/kubernetes/perf-tests"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3337,129 +3433,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="29" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C5" s="44"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://github.com/kubernetes/perf-tests"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="35.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="37.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="34.625" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="15"/>
-    </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="46"/>
+        <v>182</v>
+      </c>
+      <c r="C3" s="30"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="50"/>
+        <v>183</v>
+      </c>
+      <c r="C4" s="33"/>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C5" s="44"/>
+      <c r="C5" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3485,70 +3503,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="E1" s="45" t="s">
+      <c r="C1" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="50"/>
+        <v>183</v>
+      </c>
+      <c r="C5" s="33"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C6" s="44"/>
+      <c r="C6" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7815" tabRatio="465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platform" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="208">
   <si>
     <t>Catalog</t>
   </si>
@@ -925,6 +925,26 @@
   <si>
     <t xml:space="preserve">
 https://github.com/Mirantis/disk_perf_test_tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongo-Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceph-Exporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO (Evelyn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlertManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(Jim)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1016,7 +1036,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1062,6 +1082,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,7 +1229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1271,6 +1297,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1369,6 +1398,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1675,7 +1710,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1738,7 +1773,7 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="28" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1751,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1837,7 +1872,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1859,7 +1894,7 @@
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="39">
+      <c r="K2" s="40">
         <v>1</v>
       </c>
       <c r="L2" s="15">
@@ -1876,7 +1911,7 @@
       <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
@@ -1896,7 +1931,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="40"/>
+      <c r="K3" s="41"/>
       <c r="L3" s="15">
         <v>0</v>
       </c>
@@ -1913,7 +1948,7 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
@@ -1929,7 +1964,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="41"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="15">
         <v>0</v>
       </c>
@@ -1942,8 +1977,8 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="44" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1977,14 +2012,14 @@
       <c r="Q5" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="R5" s="30" t="s">
+      <c r="R5" s="31" t="s">
         <v>197</v>
       </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
@@ -2012,8 +2047,8 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2063,8 +2098,8 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -2103,16 +2138,16 @@
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
-      <c r="Q8" s="28" t="s">
+      <c r="Q8" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="R8" s="28" t="s">
+      <c r="R8" s="29" t="s">
         <v>193</v>
       </c>
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -2158,16 +2193,16 @@
       <c r="P9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="R9" s="33" t="s">
+      <c r="R9" s="34" t="s">
         <v>196</v>
       </c>
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
@@ -2220,8 +2255,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -2262,13 +2297,13 @@
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
-      <c r="Q11" s="34"/>
+      <c r="Q11" s="35"/>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="18" t="s">
         <v>138</v>
       </c>
@@ -2311,175 +2346,153 @@
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
     </row>
-    <row r="13" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>42</v>
+    <row r="13" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>205</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="2">
-        <v>1.538</v>
-      </c>
-      <c r="L13" s="2">
-        <v>256</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="R13" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="S13" s="21"/>
-    </row>
-    <row r="14" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>42</v>
+      <c r="K13" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0</v>
+      </c>
+      <c r="M13" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="N13" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+    </row>
+    <row r="14" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="58" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>205</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="2">
-        <v>0.128</v>
-      </c>
-      <c r="L14" s="2">
-        <v>10</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>42</v>
+      <c r="K14" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" s="15"/>
+      <c r="M14" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="N14" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+    </row>
+    <row r="15" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>205</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>205</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
       </c>
-      <c r="M15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="15"/>
+      <c r="M15" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="N15" s="57" t="s">
+        <v>205</v>
+      </c>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="21"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>33</v>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+    </row>
+    <row r="16" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>42</v>
@@ -2491,101 +2504,117 @@
         <v>42</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1.538</v>
+      </c>
+      <c r="L16" s="2">
+        <v>256</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="S16" s="21"/>
+    </row>
+    <row r="17" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="L17" s="2">
+        <v>10</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="21"/>
-    </row>
-    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="2">
-        <v>2</v>
-      </c>
-      <c r="L17" s="15">
-        <v>0</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q17" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="21"/>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -2599,22 +2628,26 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="32" t="s">
-        <v>184</v>
-      </c>
+      <c r="Q18" s="17"/>
       <c r="R18" s="19"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="44"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
+      <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="18" t="s">
-        <v>172</v>
+        <v>33</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>42</v>
@@ -2626,7 +2659,7 @@
         <v>42</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K19" s="2">
         <v>0.5</v>
@@ -2637,36 +2670,46 @@
       <c r="M19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="15"/>
+      <c r="N19" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
-      <c r="Q19" s="32" t="s">
-        <v>184</v>
-      </c>
+      <c r="Q19" s="17"/>
       <c r="R19" s="19"/>
       <c r="S19" s="21"/>
     </row>
-    <row r="20" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="39" t="s">
-        <v>132</v>
+    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="44" t="s">
+        <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+        <v>45</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="J20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="15">
-        <v>0</v>
+      <c r="K20" s="2">
+        <v>2</v>
       </c>
       <c r="L20" s="15">
         <v>0</v>
@@ -2674,36 +2717,46 @@
       <c r="M20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="R20" s="24" t="s">
-        <v>198</v>
-      </c>
+      <c r="N20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="R20" s="19"/>
       <c r="S20" s="21"/>
     </row>
-    <row r="21" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
-      <c r="B21" s="42"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="J21" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K21" s="15">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
       </c>
       <c r="L21" s="15">
         <v>0</v>
@@ -2711,43 +2764,158 @@
       <c r="M21" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="R21" s="19"/>
+      <c r="S21" s="21"/>
+    </row>
+    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="R22" s="19"/>
+      <c r="S22" s="21"/>
+    </row>
+    <row r="23" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+      <c r="B23" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0</v>
+      </c>
+      <c r="M23" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="R23" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="S23" s="21"/>
+    </row>
+    <row r="24" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="O24" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="P21" s="14" t="s">
+      <c r="P24" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21" t="s">
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="K22" s="2">
-        <f>SUM(K5:K21)</f>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="K25" s="2">
+        <f>SUM(K5:K24)</f>
         <v>22.616</v>
       </c>
-      <c r="L22" s="2">
-        <f>SUM(L2:L21)</f>
+      <c r="L25" s="2">
+        <f>SUM(L2:L24)</f>
         <v>1340</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="A2:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="E20:E22"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2801,7 +2969,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2815,7 +2983,7 @@
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="6" t="s">
         <v>49</v>
       </c>
@@ -2827,7 +2995,7 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="21" t="s">
         <v>150</v>
       </c>
@@ -2837,8 +3005,8 @@
       <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="44" t="s">
         <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2851,8 +3019,8 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="6" t="s">
         <v>154</v>
       </c>
@@ -2863,58 +3031,58 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="43" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="6" t="s">
         <v>147</v>
       </c>
@@ -2923,24 +3091,24 @@
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="25" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="27" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="6" t="s">
         <v>106</v>
       </c>
@@ -2949,9 +3117,9 @@
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="43" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="44" t="s">
         <v>148</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -2963,9 +3131,9 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="51"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="6" t="s">
         <v>57</v>
       </c>
@@ -2975,9 +3143,9 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="51"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="6" t="s">
         <v>56</v>
       </c>
@@ -2987,7 +3155,7 @@
       <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="2" t="s">
         <v>103</v>
       </c>
@@ -2999,8 +3167,8 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="39" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="40" t="s">
         <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -3011,8 +3179,8 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="40"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="2" t="s">
         <v>61</v>
       </c>
@@ -3021,8 +3189,8 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="2" t="s">
         <v>63</v>
       </c>
@@ -3031,8 +3199,8 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="24" t="s">
         <v>114</v>
       </c>
       <c r="C23" s="2"/>
@@ -3041,8 +3209,8 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="39" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="40" t="s">
         <v>95</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3053,8 +3221,8 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="40"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="2" t="s">
         <v>153</v>
       </c>
@@ -3063,8 +3231,8 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="2" t="s">
         <v>151</v>
       </c>
@@ -3073,8 +3241,8 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="49"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="2" t="s">
         <v>64</v>
       </c>
@@ -3083,8 +3251,8 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="24" t="s">
         <v>119</v>
       </c>
       <c r="D28" s="2"/>
@@ -3094,7 +3262,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="12" t="s">
         <v>97</v>
       </c>
@@ -3104,7 +3272,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="51" t="s">
         <v>101</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -3118,7 +3286,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="21" t="s">
         <v>49</v>
       </c>
@@ -3132,8 +3300,8 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="39" t="s">
+      <c r="A32" s="48"/>
+      <c r="B32" s="40" t="s">
         <v>92</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -3144,8 +3312,8 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="40"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="2" t="s">
         <v>107</v>
       </c>
@@ -3154,9 +3322,9 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="43" t="s">
+      <c r="A34" s="48"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="44" t="s">
         <v>108</v>
       </c>
       <c r="D34" s="21" t="s">
@@ -3166,9 +3334,9 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="44"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="21" t="s">
         <v>47</v>
       </c>
@@ -3176,9 +3344,9 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="48" t="s">
+      <c r="A36" s="48"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D36" s="21" t="s">
@@ -3188,9 +3356,9 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="49"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="21" t="s">
         <v>110</v>
       </c>
@@ -3200,7 +3368,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="2" t="s">
         <v>94</v>
       </c>
@@ -3210,8 +3378,8 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="23" t="s">
+      <c r="A39" s="48"/>
+      <c r="B39" s="24" t="s">
         <v>114</v>
       </c>
       <c r="C39" s="2"/>
@@ -3220,8 +3388,8 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="39" t="s">
+      <c r="A40" s="48"/>
+      <c r="B40" s="40" t="s">
         <v>96</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -3232,8 +3400,8 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="2" t="s">
         <v>113</v>
       </c>
@@ -3242,8 +3410,8 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="2" t="s">
         <v>112</v>
       </c>
@@ -3252,8 +3420,8 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="23" t="s">
+      <c r="A43" s="48"/>
+      <c r="B43" s="24" t="s">
         <v>119</v>
       </c>
       <c r="C43" s="2"/>
@@ -3262,10 +3430,10 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="36" t="s">
         <v>121</v>
       </c>
       <c r="C44" s="2"/>
@@ -3274,8 +3442,8 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="35" t="s">
+      <c r="A45" s="45"/>
+      <c r="B45" s="36" t="s">
         <v>175</v>
       </c>
       <c r="C45" s="2"/>
@@ -3284,8 +3452,8 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="35" t="s">
+      <c r="A46" s="45"/>
+      <c r="B46" s="36" t="s">
         <v>176</v>
       </c>
       <c r="C46" s="2"/>
@@ -3304,7 +3472,7 @@
       <c r="F47" s="16"/>
     </row>
     <row r="60" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
+      <c r="A60" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3334,8 +3502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3347,16 +3515,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3377,7 +3545,7 @@
       <c r="B3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>173</v>
       </c>
       <c r="D3" s="15"/>
@@ -3389,18 +3557,18 @@
       <c r="B4" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="34" t="s">
         <v>202</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="56" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="29" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3433,16 +3601,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3463,7 +3631,7 @@
       <c r="B3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3473,11 +3641,11 @@
       <c r="B4" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C5" s="28"/>
+      <c r="C5" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3503,24 +3671,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3533,11 +3701,11 @@
       <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>190</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3546,9 +3714,9 @@
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="2" t="s">
         <v>188</v>
       </c>
@@ -3561,12 +3729,12 @@
       <c r="B5" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C6" s="28"/>
+      <c r="C6" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -337,10 +337,6 @@
     <t>DONE</t>
   </si>
   <si>
-    <t>adveiss.azurecr.io/coredns:1.2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>minio-2.3.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -537,10 +533,6 @@
   </si>
   <si>
     <t>Others</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RBAC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -772,14 +764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TODO(adveiss.azurecr.io/es-rmm-portal:1.0.97)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(adveiss.azurecr.io/es-rmm-worker:1.0.97)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>config</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -789,10 +773,6 @@
   </si>
   <si>
     <t>1. reboot test (Terry)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TODO(adveiss.azurecr.io/es-ota-worker:1.0.41)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -903,10 +883,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.IPChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 1. AlertManager (Evelyn)
 2. Mongo Exporter (Evelyn)
 3. DB Size Metric - Alert (Evelyn)
@@ -945,6 +921,30 @@
   </si>
   <si>
     <t>TODO(Jim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adveiss.azurecr.io/coredns:1.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(adveiss.azurecr.io/es-rmm-portal:1.0.98)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(adveiss.azurecr.io/es-rmm-worker:1.0.98)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO(adveiss.azurecr.io/es-ota-worker:1.0.42)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.IPChange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1735,7 +1735,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" s="15"/>
     </row>
@@ -1766,15 +1766,15 @@
     </row>
     <row r="4" spans="1:5" ht="340.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1788,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1823,7 +1823,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>11</v>
@@ -1868,7 +1868,7 @@
         <v>40</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1876,15 +1876,15 @@
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>42</v>
@@ -1943,7 +1943,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S3" s="21"/>
     </row>
@@ -1958,7 +1958,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -1987,7 +1987,7 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>42</v>
@@ -2010,10 +2010,10 @@
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -2055,13 +2055,13 @@
         <v>28</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>42</v>
@@ -2090,10 +2090,10 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="S7" s="21"/>
     </row>
@@ -2104,10 +2104,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>76</v>
@@ -2139,10 +2139,10 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="29" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -2155,10 +2155,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>77</v>
@@ -2194,10 +2194,10 @@
         <v>42</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="S9" s="21"/>
     </row>
@@ -2210,13 +2210,13 @@
         <v>37</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>42</v>
@@ -2251,7 +2251,7 @@
       <c r="Q10" s="17"/>
       <c r="R10" s="19"/>
       <c r="S10" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2260,16 +2260,16 @@
         <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>145</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>42</v>
@@ -2305,16 +2305,16 @@
       <c r="A12" s="46"/>
       <c r="B12" s="48"/>
       <c r="C12" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>142</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>144</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>42</v>
@@ -2350,40 +2350,40 @@
       <c r="A13" s="46"/>
       <c r="B13" s="48"/>
       <c r="C13" s="58" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G13" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H13" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>67</v>
       </c>
       <c r="K13" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L13" s="15">
         <v>0</v>
       </c>
       <c r="M13" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N13" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
@@ -2395,38 +2395,38 @@
       <c r="A14" s="46"/>
       <c r="B14" s="48"/>
       <c r="C14" s="58" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H14" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="K14" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N14" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
@@ -2438,40 +2438,40 @@
       <c r="A15" s="46"/>
       <c r="B15" s="48"/>
       <c r="C15" s="18" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H15" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I15" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>67</v>
       </c>
       <c r="K15" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L15" s="15">
         <v>0</v>
       </c>
       <c r="M15" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N15" s="57" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
@@ -2492,7 +2492,7 @@
         <v>80</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>42</v>
@@ -2525,10 +2525,10 @@
         <v>42</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R16" s="25" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="S16" s="21"/>
     </row>
@@ -2541,13 +2541,13 @@
         <v>47</v>
       </c>
       <c r="D17" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>87</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>42</v>
@@ -2580,11 +2580,11 @@
         <v>42</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R17" s="21"/>
       <c r="S17" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2596,7 +2596,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>31</v>
@@ -2641,13 +2641,13 @@
         <v>33</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>42</v>
@@ -2688,13 +2688,13 @@
         <v>45</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>42</v>
@@ -2727,7 +2727,7 @@
         <v>42</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="21"/>
@@ -2741,7 +2741,7 @@
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="18" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>42</v>
@@ -2768,7 +2768,7 @@
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="33" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="21"/>
@@ -2782,7 +2782,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
       <c r="F22" s="18" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>42</v>
@@ -2809,7 +2809,7 @@
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="33" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="R22" s="19"/>
       <c r="S22" s="21"/>
@@ -2817,13 +2817,13 @@
     <row r="23" spans="1:19" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46"/>
       <c r="B23" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>132</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>134</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="M23" s="57" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="21" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="R23" s="25" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="S23" s="21"/>
     </row>
@@ -2857,10 +2857,10 @@
       <c r="A24" s="47"/>
       <c r="B24" s="43"/>
       <c r="C24" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -2868,7 +2868,7 @@
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K24" s="15">
         <v>0</v>
@@ -2891,7 +2891,7 @@
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -2970,7 +2970,7 @@
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>52</v>
@@ -2997,7 +2997,7 @@
     <row r="4" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -3007,14 +3007,14 @@
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -3022,7 +3022,7 @@
       <c r="A6" s="46"/>
       <c r="B6" s="45"/>
       <c r="C6" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
@@ -3034,7 +3034,7 @@
       <c r="A7" s="46"/>
       <c r="B7" s="45"/>
       <c r="C7" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
@@ -3084,7 +3084,7 @@
       <c r="A13" s="46"/>
       <c r="B13" s="45"/>
       <c r="C13" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -3103,14 +3103,14 @@
         <v>58</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46"/>
       <c r="B15" s="45"/>
       <c r="C15" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -3120,7 +3120,7 @@
       <c r="A16" s="46"/>
       <c r="B16" s="45"/>
       <c r="C16" s="44" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>55</v>
@@ -3157,10 +3157,10 @@
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46"/>
       <c r="B19" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -3169,7 +3169,7 @@
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46"/>
       <c r="B20" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>62</v>
@@ -3201,7 +3201,7 @@
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46"/>
       <c r="B23" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3211,10 +3211,10 @@
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
       <c r="B24" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -3224,7 +3224,7 @@
       <c r="A25" s="46"/>
       <c r="B25" s="41"/>
       <c r="C25" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -3234,7 +3234,7 @@
       <c r="A26" s="46"/>
       <c r="B26" s="41"/>
       <c r="C26" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -3253,18 +3253,18 @@
     <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
       <c r="B28" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>52</v>
@@ -3291,21 +3291,21 @@
         <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -3315,7 +3315,7 @@
       <c r="A33" s="48"/>
       <c r="B33" s="41"/>
       <c r="C33" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -3325,7 +3325,7 @@
       <c r="A34" s="48"/>
       <c r="B34" s="41"/>
       <c r="C34" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>57</v>
@@ -3347,7 +3347,7 @@
       <c r="A36" s="48"/>
       <c r="B36" s="41"/>
       <c r="C36" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>57</v>
@@ -3360,17 +3360,17 @@
       <c r="B37" s="42"/>
       <c r="C37" s="50"/>
       <c r="D37" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48"/>
       <c r="B38" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3380,7 +3380,7 @@
     <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48"/>
       <c r="B39" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3390,7 +3390,7 @@
     <row r="40" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48"/>
       <c r="B40" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>64</v>
@@ -3403,7 +3403,7 @@
       <c r="A41" s="48"/>
       <c r="B41" s="48"/>
       <c r="C41" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -3413,7 +3413,7 @@
       <c r="A42" s="48"/>
       <c r="B42" s="42"/>
       <c r="C42" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -3422,7 +3422,7 @@
     <row r="43" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48"/>
       <c r="B43" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3431,10 +3431,10 @@
     </row>
     <row r="44" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3444,7 +3444,7 @@
     <row r="45" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="36" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3454,7 +3454,7 @@
     <row r="46" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="36" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3522,54 +3522,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
       <c r="C5" s="56" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3608,38 +3608,38 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="15"/>
@@ -3678,24 +3678,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -3703,13 +3703,13 @@
     <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
       <c r="B3" s="54" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -3718,16 +3718,16 @@
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
       <c r="D4" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="15"/>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -1788,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3659,7 +3659,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/spec/ark3530_single_specs.xlsx
+++ b/spec/ark3530_single_specs.xlsx
@@ -1788,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
